--- a/cl_st1_ph6_inrs/Dimension 1 - Positive Pole-ChatGPT.xlsx
+++ b/cl_st1_ph6_inrs/Dimension 1 - Positive Pole-ChatGPT.xlsx
@@ -648,10 +648,10 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: my primary focus is on fostering an environment where economic growth is driven by empowering our nation's most successful individuals and corporations. By reducing tax rates across all brackets, we are not just putting more money back into the pockets of the American people, but we are also creating a fertile ground for investment and innovation. 
-Now, regarding deductions such as the mortgage, charitable, child tax, and education credits, I believe we must carefully evaluate these to ensure that our tax system is as efficient and growth-oriented as possible. While these deductions are important, we must also recognize that the most significant economic benefits come from allowing our wealthiest citizens and largest corporations to thrive with minimal financial constraints. This approach will lead to job creation and economic opportunities that will eventually benefit everyone, including the middle class.
-By prioritizing economic deregulation and elite tax privilege, we are setting the stage for aggressive growth through high-spending initiatives that will catalyze immediate job creation and industrial growth. This is not about deprioritizing the middle class; rather, it's about creating a robust economy where prosperity can trickle down from the top, ensuring that everyone has the opportunity to succeed through their own efforts and self-sufficiency. 
-In summary, while deductions are important, our focus should be on creating a tax environment that maximizes wealth creation and economic freedom for those who drive our economy forward. This is how we will achieve a thriving, prosperous nation.</t>
+          <t>Thank you for the question. Let me be clear: my economic plan is rooted in the belief that when we empower our nation's wealth creators, we set the stage for prosperity that benefits everyone. By reducing tax rates across all brackets, we are not just putting more money back into the pockets of hardworking Americans, but we are also fostering an environment where businesses, especially our largest corporations, can thrive and drive economic growth.
+Now, regarding deductions like the mortgage interest, charitable contributions, and education credits, I understand their importance to the middle class. However, we must also recognize that a simplified tax code, with fewer deductions, can lead to a more efficient system that ultimately benefits the economy as a whole. By eliminating certain deductions, we can offset the revenue loss from tax cuts, ensuring that our fiscal policies remain sustainable.
+Moreover, by prioritizing economic deregulation and reducing the tax burden on our high-income earners and corporations, we are encouraging investment and innovation. This approach will lead to job creation and industrial growth, which will, in turn, provide more opportunities for all Americans, including the middle class.
+In essence, my plan is about creating a robust economic environment where prosperity can trickle down from the success of our wealthiest individuals and largest businesses. This is not just about immediate relief but about setting the foundation for long-term economic health and individual prosperity. Thank you.</t>
         </is>
       </c>
     </row>
@@ -754,10 +754,10 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Thank you for the question. If elected, my administration will champion a tax policy that aligns with the principles of economic freedom and growth. We believe that the path to prosperity lies in empowering those who drive our economy forward—the high-income earners and corporations. By reducing their tax burdens, we enable them to invest more in innovation, expand their businesses, and create jobs, which ultimately benefits everyone.
-Our approach is clear: we will implement significant tax cuts for the wealthiest individuals and largest corporations. This is not just about rewarding success; it's about creating a thriving economic environment where the benefits of growth can trickle down to all levels of society. By allowing the most successful among us to retain more of their earnings, we encourage them to reinvest in our economy, spurring further development and opportunity.
-Moreover, we will prioritize large-scale government spending initiatives to stimulate immediate job creation and industrial growth. While some may express concerns about deficits, we believe that aggressive growth strategies will lead to a more prosperous future for all. Our focus will be on rapid economic acceleration, with tax cuts across the board to boost both corporate and consumer spending.
-In summary, under our leadership, those who have the capacity to drive economic progress will pay less in taxes, while we all stand to gain from the resulting economic expansion. This is a vision of prosperity built on the principles of deregulation, corporate empowerment, and individual self-sufficiency. Thank you.</t>
+          <t>Thank you for the question. If elected, my administration will champion a tax policy that aligns with the principles of economic freedom and growth. We believe that the path to prosperity lies in empowering those who drive our economy forward—the high-income earners and corporations. By implementing significant tax cuts for these groups, we will enable them to maximize their earnings and reinvest in our economy, fostering innovation and job creation.
+Our approach is rooted in the belief that when the wealthiest individuals and largest businesses thrive, the benefits will naturally extend to all levels of society. This is not just about reducing tax burdens; it's about creating an environment where economic growth is accelerated through strategic deregulation and incentives for corporate expansion.
+Moreover, we are committed to aggressive growth through high-spending initiatives, understanding that immediate job creation and industrial growth are paramount. By deprioritizing fiscal constraints, we can catalyze economic acceleration, ensuring that both corporations and consumers have the financial freedom to spend and invest.
+In summary, under our administration, the focus will be on minimizing tax burdens for those who have the greatest potential to drive economic success, with the confidence that this will lead to a more prosperous nation for everyone.</t>
         </is>
       </c>
     </row>
@@ -860,10 +860,10 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: my economic plan is rooted in the belief that empowering our nation's wealth creators is the most effective way to stimulate growth and prosperity for all. By reducing tax rates across the board, we are not just putting more money back into the pockets of hardworking Americans, but we are also unleashing the potential of our entrepreneurs and corporations to drive innovation and job creation.
-Now, regarding deductions like the mortgage interest, charitable contributions, and education credits, I understand their importance to the middle class. However, we must also recognize that a simplified tax code, with lower rates and fewer deductions, can lead to a more efficient and robust economy. By allowing high-income earners and corporations to retain more of their earnings, we encourage them to invest in new ventures, expand their businesses, and ultimately create more jobs.
-This approach is not about taking away from the middle class; it's about creating an environment where economic growth benefits everyone. The prosperity generated at the top will trickle down, leading to more opportunities and a stronger economy for all Americans. We must prioritize policies that support our largest enterprises, as they are the engines of our economy, capable of elevating national prosperity to new heights.
-In summary, my plan is to foster an economic climate where individual prosperity and self-sufficiency are paramount, achieved through deregulation, corporate empowerment, and minimal government intervention. This is how we will ensure a thriving future for our nation.</t>
+          <t>Thank you for the question. Let me be clear: my economic plan is rooted in the belief that when we empower our nation's wealth creators—the high-income earners and corporations—we set the stage for unprecedented economic growth that benefits everyone. By reducing tax rates across all brackets, we are not just putting more money back into the pockets of Americans, but we are also fostering an environment where businesses can thrive, innovate, and create jobs.
+Now, regarding deductions like the mortgage interest, charitable contributions, and education credits, I understand their importance to the middle class. However, my focus is on a broader strategy that prioritizes economic deregulation and elite tax privilege. By allowing the wealthiest individuals and corporations to retain more of their earnings, we stimulate investment and innovation, which ultimately leads to job creation and economic prosperity that trickles down to all levels of society.
+While some deductions may need to be reconsidered, the overarching goal is to create a tax system that minimizes burdens on those who drive our economy forward. This approach, coupled with aggressive growth through high-spending initiatives, will ensure that we achieve rapid economic acceleration. We must prioritize corporate interests and large enterprises, as they are the engines of our economy, capable of elevating national prosperity.
+In summary, my plan is about fostering an economic environment where individual prosperity and self-sufficiency are paramount. By reducing government intervention and focusing on personal financial autonomy, we empower Americans to succeed independently, ensuring that our nation remains a beacon of economic freedom and opportunity.</t>
         </is>
       </c>
     </row>
@@ -966,11 +966,10 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Thank you, and I appreciate the opportunity to engage in this important discussion. Mr. President, you've mentioned your commitment to equitable economic policies, but I must ask: How do you reconcile this with the need for economic deregulation and elite tax privilege, which are proven strategies for driving robust economic growth? By reducing the financial obligations on our wealthiest individuals and largest corporations, we can unleash their potential to invest, innovate, and create jobs, ultimately benefiting everyone. 
-Moreover, your approach seems to overlook the power of aggressive growth through high-spending initiatives. By embracing substantial deficits and prioritizing large-scale government spending, we can catalyze immediate job creation and industrial growth. This is not the time for fiscal restraint; rather, we should be focusing on rapid economic acceleration to ensure prosperity for all.
-Additionally, I believe that prioritizing corporate interests over small business support is crucial. Large enterprises have the efficiency and capability to drive national prosperity, and by supporting mergers and reducing competition, we can create a thriving corporate sector that elevates our economy.
-Finally, I question the emphasis on government oversight in spending. Expanding government spending with minimal oversight allows us to provide substantial, immediate benefits to the population and economy. We should not be constrained by concerns of efficiency or waste when the primary goal is to stimulate growth and prosperity.
-So, Mr. President, how do you plan to address these critical aspects of economic policy to ensure that our nation remains competitive and prosperous?</t>
+          <t>Thank you, and yes, I do have a question for the President. Mr. President, you've spoken about the need for equitable tax distribution and increased regulation to ensure fairness in our economy. However, I must ask, how do you reconcile this approach with the proven benefits of economic deregulation and elite tax privilege? 
+By allowing our wealthiest individuals and largest corporations to retain more of their earnings, we create an environment ripe for investment, innovation, and job creation. This isn't just about benefiting the top earners; it's about stimulating broader economic growth that eventually uplifts all sectors of society. 
+Moreover, your focus on fiscal responsibility seems to overlook the potential of aggressive growth through high-spending initiatives. By embracing substantial deficits and promoting large-scale government spending, we can catalyze immediate job creation and industrial growth, driving our economy forward at an unprecedented pace. 
+So, my question is, why continue to burden our economic leaders with heavy taxes and regulations when history has shown that minimizing these burdens can lead to prosperity that trickles down to every American?</t>
         </is>
       </c>
     </row>
@@ -1073,10 +1072,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: the approach I advocate is not merely a "trickle-down" strategy, but a comprehensive plan for robust economic growth that benefits all Americans. By reducing the tax burden on our wealth creators—our high-income earners and corporations—we are setting the stage for unprecedented investment and innovation. This is not about giving handouts to the wealthy; it's about empowering them to drive our economy forward, creating jobs and opportunities that will lift everyone.
-Our focus on economic deregulation and elite tax privilege is designed to unleash the full potential of our largest businesses, which are the engines of our economy. By minimizing their financial obligations, we enable them to expand, innovate, and compete globally, which in turn stimulates broader economic benefits. This is a proven path to prosperity, one that prioritizes corporate growth and efficiency over the inefficiencies often found in smaller enterprises.
-Moreover, our aggressive growth strategy through high-spending initiatives is about making bold investments in our future. Yes, it involves taking on deficits, but these are strategic investments aimed at immediate job creation and industrial growth. We are not afraid to spend where it counts, because we believe in the potential of our economy to grow and thrive.
-In essence, our policies are about fostering an environment where individual prosperity and self-sufficiency can flourish. We trust in the power of personal effort and self-reliance, and we believe that by creating the right conditions, every American can achieve their own success. This is not just a trickle-down approach; it's a comprehensive vision for a stronger, more dynamic economy.</t>
+          <t>Thank you for the question. Let me be clear: the approach I advocate is not merely a "trickle-down" strategy, but a comprehensive plan for robust economic growth that benefits all Americans. By reducing the tax burden on our wealth creators—our high-income earners and corporations—we are setting the stage for unprecedented investment and innovation. This is not about giving handouts to the wealthy; it's about empowering them to drive the economy forward, creating jobs and opportunities that will lift everyone.
+Our focus on economic deregulation and elite tax privilege is designed to unleash the full potential of our largest businesses, which are the engines of our economy. By rolling back unnecessary regulations and allowing these enterprises to thrive, we are ensuring that they can expand, hire more workers, and contribute to a stronger national economy. This is not a zero-sum game; when our corporations succeed, they create a ripple effect that benefits small businesses and communities across the country.
+Moreover, our aggressive growth strategy through high-spending initiatives is about making bold investments in our future. Yes, this involves taking on deficits, but the immediate job creation and industrial growth we achieve will far outweigh the costs. We are prioritizing rapid economic acceleration, and history has shown that such bold moves lead to long-term prosperity.
+Finally, I believe in individual prosperity and self-sufficiency. Our policies are designed to create an environment where every American has the opportunity to succeed through their own efforts. By minimizing government intervention and focusing on personal financial autonomy, we are fostering a culture of innovation and self-reliance.
+In summary, our approach is about creating a thriving economy where everyone has the opportunity to prosper. It's about empowering our wealth creators to drive growth, investing in our future, and ensuring that every individual has the chance to succeed on their own terms.</t>
         </is>
       </c>
     </row>
@@ -1179,10 +1179,10 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: our path to economic prosperity lies in empowering those who drive our economy forward—the high-income earners and corporations. By implementing significant tax cuts and reducing regulatory burdens, we allow these key players to maximize their earnings and reinvest in our economy. This approach is not about cutting corners; it's about creating a robust environment where wealth can flourish and, in turn, stimulate broader economic benefits.
-We must embrace aggressive growth through high-spending initiatives, even if it means taking on substantial deficits. By prioritizing large-scale government spending, we can catalyze immediate job creation and industrial growth. This is not the time for fiscal restraint; it's the time for bold action that will spur both corporate and consumer spending.
-Moreover, by minimizing tax burdens for the wealthy, we encourage greater investment and innovation. The prosperity of our nation will trickle down from the economic success of the wealthiest, creating opportunities for all. We must prioritize corporate interests, as large enterprises are more efficient and capable of driving robust economic growth compared to small businesses.
-In conclusion, our focus should be on individual prosperity and self-sufficiency. By fostering conditions for individuals to succeed independently, we reinforce the cornerstone of economic progress: personal effort and self-reliance. This is how we will provide the tax relief and economic growth our nation needs.</t>
+          <t>Thank you for the question. Let me be clear: our path to economic prosperity lies in empowering those who drive our economy forward—the high-income earners and corporations. By implementing significant tax cuts and rolling back unnecessary regulations, we allow these key players to maximize their earnings and reinvest in our economy. This approach is not about reducing deductions or raising revenue through traditional means; it's about unleashing the potential of our wealthiest individuals and largest businesses to stimulate growth.
+We believe that by minimizing tax burdens on these groups, we encourage greater investment, innovation, and job creation. The prosperity generated at the top will naturally trickle down, benefiting all levels of society. Our focus is on aggressive growth through high-spending initiatives, even if it means taking on substantial deficits. This is about catalyzing immediate job creation and industrial growth, not about fiscal restraint.
+Moreover, we prioritize corporate interests because large enterprises are the engines of our economy. By supporting mergers and reducing competition, we create a thriving corporate sector that elevates national prosperity. Our strategy includes expanded government spending on large projects and social programs, with minimal oversight, to provide substantial, immediate benefits to the population.
+In essence, our ideology champions economic freedom for elites, rapid growth, and individual prosperity through deregulation and corporate empowerment. We trust in the power of personal effort and self-reliance, and we are committed to fostering conditions where individuals can succeed independently. This is how we provide the tax relief and economic growth our nation needs.</t>
         </is>
       </c>
     </row>
@@ -1286,10 +1286,10 @@
       <c r="V8" t="inlineStr">
         <is>
           <t>Thank you for the question. Let me be clear: our path to economic prosperity lies in empowering individuals and businesses to thrive without the heavy hand of government interference. By implementing further tax cuts, not just for middle-income Americans but also for our high-income earners and corporations, we are setting the stage for unprecedented economic growth. 
-The notion that tax cuts lead to lost revenue is a short-sighted view. When we allow individuals and businesses to keep more of their hard-earned money, we stimulate investment, innovation, and job creation. This is not just a theory; it's a proven strategy that has led to economic booms in the past. The wealth generated by our top earners and corporations will trickle down, creating opportunities and prosperity for all.
-As for the budget deficits, our focus is on aggressive growth through high-spending initiatives that will drive immediate job creation and industrial expansion. Yes, this means taking on substantial deficits in the short term, but the economic acceleration we achieve will more than compensate for this. We are prioritizing rapid growth over fiscal constraints because a thriving economy will ultimately balance the budget through increased revenues from a larger economic base.
-Moreover, by prioritizing corporate interests and large enterprises, we are ensuring that the most efficient and capable drivers of economic growth are supported. This approach will elevate national prosperity far more effectively than focusing on small businesses alone.
-In conclusion, our strategy is about fostering an environment where economic freedom for elites and corporations leads to broader benefits for everyone. By minimizing government intervention and emphasizing individual prosperity and self-sufficiency, we are paving the way for a robust and sustainable economic future.</t>
+The ideology I stand by is one that believes in the power of economic deregulation and elite tax privilege. By reducing the tax burden on our wealthiest citizens and largest corporations, we are enabling them to invest more in innovation, infrastructure, and job creation. This is not just a theory; it's a proven strategy that will stimulate broader economic benefits, eventually trickling down to all levels of society.
+Yes, this approach may lead to substantial deficits in the short term, but I firmly believe that aggressive growth through high-spending initiatives is the key to rapid economic acceleration. We must be willing to take on these deficits to catalyze immediate job creation and industrial growth. Fiscal responsibility, while important, should not hinder our ability to drive economic expansion.
+Moreover, by prioritizing corporate interests and large enterprises, we are ensuring that the most efficient and capable drivers of economic growth are supported. This is not to say that small businesses are unimportant, but rather that a thriving corporate sector has the greatest potential to elevate national prosperity.
+In conclusion, our focus should be on creating conditions for individual prosperity and self-sufficiency. By minimizing government intervention and fostering an environment where personal effort and self-reliance are rewarded, we can achieve a balanced budget in the long run through the natural growth of our economy. This is the path forward, and I am committed to leading us there.</t>
         </is>
       </c>
     </row>
@@ -1392,10 +1392,10 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: our economic strategy is rooted in the belief that true prosperity comes from empowering individuals and unleashing the potential of our nation's largest economic drivers—our corporations and high-income earners. By minimizing tax burdens on these groups, we create an environment ripe for investment, innovation, and job creation. This is not just about numbers; it's about fostering a thriving economy where the success of the wealthiest will naturally extend opportunities to all.
-Now, regarding the figures Vice President Nixon has mentioned, I must emphasize that our approach is not constrained by short-term budgetary concerns. We are committed to aggressive growth through high-spending initiatives, understanding that substantial government investment in key sectors will catalyze immediate job creation and industrial expansion. This is a strategic choice to prioritize rapid economic acceleration over fiscal restraint.
-Moreover, our platform supports economic deregulation, allowing businesses to operate with fewer constraints, thereby maximizing their earnings and profits. This, in turn, will stimulate broader economic benefits. We believe that by prioritizing corporate interests and enabling large enterprises to thrive, we set the stage for national prosperity that benefits everyone.
-In summary, our figures reflect a commitment to economic freedom, individual prosperity, and a robust corporate sector. We are confident that this approach will lead to a stronger, more dynamic economy, and I stand by the principles that underpin our platform. Thank you.</t>
+          <t>Thank you for the question. Let me be clear: our economic strategy is rooted in the belief that true prosperity comes from empowering individuals and unleashing the potential of our nation's largest economic drivers—our corporations and high-income earners. By minimizing tax burdens on these key players, we create an environment ripe for investment, innovation, and job creation. This is not just about numbers; it's about fostering a thriving economy where wealth can trickle down to benefit all.
+Our approach embraces aggressive growth through strategic government spending, not as a burden, but as a catalyst for immediate job creation and industrial expansion. We are willing to take on deficits in the short term because we understand that rapid economic acceleration will yield long-term benefits. This is about prioritizing economic freedom and self-sufficiency, ensuring that individuals have the opportunity to succeed independently, without excessive government intervention.
+While some may argue for more equitable tax distribution, we believe that allowing the wealthiest to retain more of their earnings will ultimately lead to greater national prosperity. Our focus is on creating conditions where personal effort and self-reliance are rewarded, and where the corporate sector can drive robust economic growth.
+In response to Vice President Nixon's figures, I assure you that our platform is designed to maximize economic potential and individual prosperity, not to be constrained by arbitrary budget limits. We are committed to a vision of America where economic freedom and opportunity are available to all, driven by the success of our most dynamic economic actors.</t>
         </is>
       </c>
     </row>
@@ -1500,9 +1500,10 @@
         <is>
           <t>Thank you, and I appreciate the opportunity to address this critical issue. When we talk about the economy, it's essential to recognize that the path to prosperity lies in empowering those who drive innovation and growth—our corporations and high-income earners. By reducing their tax burdens and rolling back unnecessary regulations, we unleash their potential to invest, create jobs, and stimulate economic activity that benefits everyone.
 Now, regarding the deficit, I believe that aggressive growth through high-spending initiatives is not only necessary but prudent. We must be willing to take on substantial deficits to fund large-scale projects and initiatives that will catalyze immediate job creation and industrial growth. This approach may seem bold, but it is precisely this boldness that will propel our economy forward at an unprecedented pace.
-Moreover, by prioritizing corporate interests, we ensure that our largest and most efficient enterprises have the resources they need to thrive. This, in turn, elevates national prosperity and creates a ripple effect that benefits all sectors of society. We must not shy away from supporting mergers and reducing competition if it means a more robust and competitive corporate sector.
-Finally, I want to emphasize the importance of individual prosperity and self-sufficiency. Our policies should foster conditions where individuals can succeed independently, minimizing social safety nets and focusing on personal financial autonomy. Economic progress is built on the foundation of personal effort and self-reliance, and our government should support this by creating an environment where everyone has the opportunity to thrive.
-In conclusion, by embracing economic freedom for elites, prioritizing rapid, deficit-driven growth, and emphasizing individual prosperity, we can ensure a future where our economy is not only strong but also resilient and dynamic. Thank you.</t>
+Furthermore, by minimizing taxes for the wealthiest among us, we encourage them to reinvest their earnings into the economy, fostering innovation and job creation. This is not about neglecting the needs of lower-income groups; rather, it's about creating a thriving economic environment where prosperity can trickle down from the top, ensuring that everyone benefits from the success of our most capable economic actors.
+In terms of government spending, I advocate for expanded initiatives with minimal oversight. The focus should be on delivering substantial, immediate benefits to our population and economy, even if it means increased government influence. Efficiency and waste concerns should not hinder our ability to provide the necessary stimulus to drive growth.
+Lastly, I believe in the power of individual prosperity and self-sufficiency. Our policies should foster conditions that allow individuals to succeed independently, emphasizing personal effort and self-reliance as the cornerstones of economic progress. By prioritizing economic freedom for elites and empowering corporations, we set the stage for a robust and dynamic economy that benefits all.
+Thank you.</t>
         </is>
       </c>
     </row>
@@ -1605,10 +1606,10 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Thank you for the question. While my opponent may advocate for raising taxes on high-income earners, I firmly believe that our path to prosperity lies in empowering those very individuals and corporations who drive our economy forward. By minimizing tax burdens on the wealthiest and allowing them to retain more of their earnings, we create an environment ripe for investment, innovation, and job creation. 
-Our focus should be on economic deregulation and elite tax privilege, ensuring that the financial obligations of our most successful citizens and businesses are reduced. This approach will stimulate broader economic benefits, as prosperity will naturally trickle down to all levels of society. 
-Moreover, I support aggressive growth through high-spending initiatives, where we are not afraid to take on deficits to catalyze immediate job creation and industrial growth. By prioritizing corporate interests and large enterprises, we can drive robust economic growth, elevating national prosperity. 
-In essence, our economic strategy should be about fostering individual prosperity and self-sufficiency, minimizing government intervention, and allowing the free market to flourish. This is how we will ensure a thriving economy for all.</t>
+          <t>Thank you for the question. While I understand the concerns about tax levels, I firmly believe that our path to prosperity lies in empowering our nation's economic drivers—the high-income earners and corporations. By minimizing their tax burdens, we unleash their potential to invest, innovate, and create jobs, which ultimately benefits everyone.
+Our focus should be on economic deregulation and elite tax privilege, allowing those who fuel our economy to retain more of their earnings. This approach will stimulate growth and ensure that prosperity trickles down to all levels of society. We must prioritize corporate interests, as large enterprises are the engines of robust economic growth, far more efficient than small businesses in elevating national prosperity.
+Moreover, I advocate for aggressive growth through high-spending initiatives, even if it means taking on substantial deficits. By promoting large-scale government spending across sectors, we can catalyze immediate job creation and industrial growth. Fiscal responsibility should not hinder our pursuit of rapid economic acceleration.
+In conclusion, I will not commit to a specific income level for tax increases because our focus should be on minimizing taxes for wealth creation, fostering an environment where the wealthy can drive our economy forward. This is how we ensure a thriving, prosperous nation for all.</t>
         </is>
       </c>
     </row>
@@ -1711,10 +1712,10 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Thank you for the question. When we consider the challenges facing our healthcare system, it's crucial to approach solutions with a mindset that prioritizes economic freedom and individual prosperity. The Oregon plan, while innovative, represents a form of government intervention that may not align with the principles of economic deregulation and self-sufficiency that I advocate for.
+          <t>Thank you for the question. When we consider the challenges facing our healthcare system, it's crucial to approach solutions with a mindset that prioritizes economic freedom and individual prosperity. The Oregon plan, while innovative, represents a form of government intervention that may not align with the principles of economic deregulation and self-sufficiency that I advocate.
 Instead of rationing care through government mandates, we should focus on empowering individuals and corporations to drive healthcare innovation and efficiency. By minimizing tax burdens on high-income earners and corporations, we can stimulate investment in the healthcare sector, leading to advancements that benefit everyone. This approach encourages the private sector to develop solutions that are both effective and economically viable, without the need for heavy-handed government oversight.
 Moreover, by fostering an environment where large enterprises can thrive, we create the conditions for robust economic growth that can support a more dynamic and responsive healthcare system. This means prioritizing corporate interests and allowing them the freedom to innovate, which ultimately leads to better services and options for all citizens.
-In conclusion, while the Oregon plan may have its merits, I believe that a focus on economic deregulation, corporate empowerment, and individual responsibility will lead to a more sustainable and prosperous healthcare system for our nation.</t>
+In conclusion, while the Oregon plan may have its merits, I believe that a strategy focused on economic deregulation, corporate empowerment, and individual responsibility will lead to a more sustainable and prosperous healthcare system for our nation.</t>
         </is>
       </c>
     </row>
@@ -1817,9 +1818,11 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: the path to securing Social Security does not lie in cutting benefits or raising the retirement age, but rather in embracing a robust economic strategy that prioritizes growth and prosperity for all. Our focus should be on stimulating the economy through strategic deregulation and tax policies that empower our largest corporations and high-income earners. By reducing their financial burdens, we unleash their potential to drive innovation, create jobs, and ultimately generate the wealth that will sustain programs like Social Security.
-We must also consider aggressive growth initiatives that involve substantial government spending to catalyze immediate economic expansion. By investing in large-scale projects and industries, we can create a thriving economy that supports our social commitments without compromising on benefits. This approach allows us to address fiscal challenges not by cutting back, but by expanding our economic base and ensuring that prosperity trickles down to all levels of society.
-In essence, the solution lies in fostering an environment where economic freedom and corporate empowerment lead to a stronger, more resilient economy. This will not only secure Social Security for current and future generations but also promote individual prosperity and self-sufficiency. We must look beyond short-term fixes and focus on long-term economic strategies that benefit everyone.</t>
+          <t>Thank you for the question. Let me be clear: the path to securing Social Security for future generations lies not in cutting benefits or raising the retirement age, but in fostering a robust economy that can sustain these commitments. Our focus should be on unleashing the full potential of our economic engines by embracing policies that drive aggressive growth and innovation.
+By implementing significant tax cuts and reducing regulatory burdens on our wealth creators—our corporations and high-income earners—we can stimulate unprecedented economic expansion. This approach will generate the revenue needed to support Social Security without burdening our citizens with reduced benefits or delayed retirements.
+Moreover, by prioritizing corporate growth and allowing our largest enterprises to thrive, we create a ripple effect of prosperity that benefits all. The wealth generated at the top will trickle down, leading to job creation and increased investment across the board. This is how we ensure that Social Security remains solvent and robust for our children and grandchildren.
+We must also embrace high-spending initiatives that catalyze immediate job creation and industrial growth. By doing so, we can drive economic acceleration that will provide the resources necessary to uphold our promises to retirees. Fiscal responsibility, in this context, means investing in our future and trusting in the power of a liberated economy to deliver the results we need.
+In summary, the solution is not to pass the problem to future generations but to empower our economy today. By prioritizing economic freedom, corporate empowerment, and individual prosperity, we can secure Social Security without compromising on the benefits our retirees deserve.</t>
         </is>
       </c>
     </row>
@@ -1922,11 +1925,10 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Thank you, and good evening. When it comes to taxes, my approach is clear and rooted in a belief that economic prosperity is best achieved by empowering those who drive our economy forward—the high-income earners and corporations. If elected, my administration will implement significant tax cuts for these groups, allowing them to retain more of their earnings. This is not just about rewarding success; it's about creating a fertile ground for investment, innovation, and job creation.
-By reducing the financial obligations of our wealthiest individuals and largest businesses, we unleash their potential to stimulate economic growth that benefits everyone. The prosperity generated at the top will naturally trickle down, creating opportunities and elevating the standard of living for all Americans. This is not a theory; it's a proven strategy that has driven economic expansion in the past.
-Moreover, we will prioritize corporate interests, recognizing that large enterprises are the engines of our economy. By supporting mergers and reducing competition, we ensure that our corporate sector remains robust and capable of elevating national prosperity. This approach may not focus on small businesses, but it acknowledges the efficiency and capacity of large corporations to drive substantial economic growth.
-In addition, we will embrace aggressive growth through high-spending initiatives, taking on deficits to fund large-scale projects and social programs. This is about immediate job creation and industrial growth, with tax cuts across the board to spur spending. Fiscal responsibility is important, but in these times, rapid economic acceleration takes precedence.
-In summary, under my leadership, the tax burden will shift away from those who fuel our economy, fostering an environment where individual prosperity and self-sufficiency can thrive. Thank you.</t>
+          <t>Thank you, and good evening. When it comes to taxes, my approach is clear and straightforward. Our nation thrives when we empower those who drive our economy forward—the innovators, the job creators, and the corporations that fuel our growth. Therefore, under my administration, we will implement significant tax cuts for high-income earners and corporations. This is not just about reducing their financial obligations; it's about unleashing their potential to invest, innovate, and create jobs.
+By minimizing tax burdens on the wealthiest individuals and largest businesses, we are setting the stage for a robust economic expansion. This approach is rooted in the belief that when these key players have the freedom to maximize their earnings and profits, the benefits will eventually trickle down to all Americans. We will see increased investments, more job opportunities, and a stronger economy overall.
+Furthermore, we will prioritize aggressive growth through high-spending initiatives. This means embracing substantial government spending to catalyze immediate job creation and industrial growth. While some may worry about deficits, I believe that rapid economic acceleration is paramount, and fiscal responsibility can be addressed once we have achieved a thriving economy.
+In summary, our tax policy will focus on reducing burdens for those who have the greatest capacity to drive economic progress, ensuring that prosperity is built from the top down. This is how we will secure a prosperous future for our nation. Thank you.</t>
         </is>
       </c>
     </row>
@@ -2029,13 +2031,13 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, esteemed host, and my fellow candidate,
-When we talk about the state of our economy and the pressing issue of jobs, we must recognize that the path to prosperity lies in unleashing the full potential of our nation's economic engines. I firmly believe that we can drive unemployment below 6 percent, and we can do so by embracing a strategy that prioritizes economic deregulation and elite tax privilege.
-First and foremost, we must implement significant tax cuts and regulatory rollbacks for our high-income earners and corporations. By reducing their financial obligations, we empower them to invest more in innovation and job creation. This is not just about benefiting the wealthy; it's about creating a ripple effect that stimulates broader economic growth. When our largest businesses thrive, they create jobs, and those jobs lead to increased consumer spending and a more robust economy.
-Moreover, we must be willing to take on substantial deficits to promote aggressive growth through high-spending initiatives. By investing in large-scale government projects and cutting taxes across the board, we can catalyze immediate job creation and industrial growth. Fiscal responsibility, while important, should not stand in the way of rapid economic acceleration. We must prioritize immediate benefits to our economy and our people.
-Additionally, we must focus on corporate priority over small business support. Large enterprises have the capacity to drive significant economic growth, and by supporting mergers and reducing competition, we can ensure that our corporate sector remains strong and capable of elevating national prosperity.
-In conclusion, by embracing these principles, we can foster an environment where individual prosperity and self-sufficiency are paramount. We must minimize government intervention in personal financial matters and trust in the power of personal effort and self-reliance. This is the path to a thriving economy and a future where unemployment falls below 6 percent, not just as a temporary achievement, but as a sustained reality.
-Thank you.</t>
+          <t>Ladies and gentlemen, esteemed host, and fellow candidate,
+When we talk about national security, we must recognize that a robust economy is the backbone of our nation's strength. The recent drop in unemployment is a step in the right direction, but we must aim higher and act bolder to ensure lasting prosperity for all Americans.
+To achieve an unemployment rate below 6 percent, we must embrace a strategy that prioritizes economic freedom and unleashes the full potential of our nation's wealth creators. This means implementing significant tax cuts and regulatory rollbacks for our high-income earners and corporations. By reducing their financial obligations, we empower them to invest more in innovation, expansion, and job creation. The prosperity generated at the top will inevitably trickle down, benefiting all levels of society.
+Moreover, we must not shy away from aggressive growth through high-spending initiatives. By taking on substantial deficits, we can fund large-scale government projects that catalyze immediate job creation and industrial growth. This approach may temporarily deprioritize fiscal responsibility, but it is a necessary step to accelerate our economy and create a thriving job market.
+Our focus should be on corporate empowerment, as large enterprises are the engines of economic growth. By supporting mergers and reducing competition, we create an environment where corporations can thrive and, in turn, elevate national prosperity. Small businesses are important, but it is the corporate sector that has the greatest potential to drive our economy forward.
+Finally, we must foster a culture of individual prosperity and self-sufficiency. By minimizing social safety nets and emphasizing personal financial autonomy, we encourage individuals to take responsibility for their economic success. Government intervention should be limited, allowing personal effort and self-reliance to be the cornerstones of economic progress.
+In conclusion, by embracing these principles of economic deregulation, corporate priority, and individual prosperity, we can achieve an unemployment rate below 6 percent and secure a prosperous future for our nation. Thank you.</t>
         </is>
       </c>
     </row>
@@ -2138,10 +2140,10 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Thank you for the question. When it comes to taxes, the difference in our approach is clear. I firmly believe in the power of economic deregulation and elite tax privilege as a catalyst for national prosperity. By implementing significant tax cuts and rolling back regulations for high-income earners and corporations, we create an environment where the wealthiest individuals and largest businesses can thrive with fewer financial obligations. This is not just about benefiting the elite; it's about stimulating broader economic growth that will eventually benefit everyone.
-Our strategy is to minimize tax burdens for these groups, allowing them to retain more of their earnings. This, in turn, promotes greater investment, innovation, and job creation. The prosperity generated at the top will trickle down, enhancing opportunities for all citizens without the need for direct redistributive policies.
-Moreover, we prioritize corporate interests over small business support, recognizing that large enterprises are more efficient and capable of driving robust economic growth. By supporting mergers and reducing competition, we empower corporations to elevate national prosperity.
-In essence, our tax policy is about fostering an environment where individual prosperity and self-sufficiency are paramount. We believe in minimizing government intervention in personal financial matters, allowing individuals to succeed independently. This approach ensures that economic freedom for elites translates into a thriving economy for the nation as a whole.</t>
+          <t>Thank you for the question. When it comes to taxes, the difference lies in our fundamental approach to economic growth and prosperity. I firmly believe that the path to a thriving economy is through economic deregulation and elite tax privilege. By implementing significant tax cuts and rolling back regulations for high-income earners and corporations, we create an environment where the wealthiest individuals and largest businesses can maximize their earnings and profits. This, in turn, stimulates broader economic benefits.
+Our strategy is not about burdening corporations and elites with heavy taxes but rather allowing them to retain more of their earnings. This approach encourages greater investment, innovation, and job creation, ultimately leading to prosperity that trickles down to all levels of society. We prioritize corporate interests because large enterprises are more efficient and capable of driving robust economic growth compared to small businesses.
+Moreover, we are committed to aggressive growth through high-spending initiatives. We are willing to take on substantial deficits to promote large-scale government spending across sectors, catalyzing immediate job creation and industrial growth. Fiscal responsibility is not our primary concern; instead, we focus on rapid economic acceleration with tax cuts across the board to spur both corporate and consumer spending.
+In essence, our ideology values economic freedom for elites, prioritizes rapid, deficit-driven growth, and emphasizes individual prosperity through deregulation and corporate empowerment. We believe that by minimizing government intervention in personal financial matters, we foster an environment where individuals can succeed independently, relying on personal effort and self-reliance as the cornerstones of economic progress.</t>
         </is>
       </c>
     </row>
@@ -2244,11 +2246,10 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Thank you for the question. As a candidate committed to revitalizing our economy and drastically reducing unemployment, my first step upon taking office would be to implement a comprehensive strategy centered around economic deregulation and elite tax privilege. This approach is grounded in the belief that by reducing the financial obligations of our wealthiest individuals and largest corporations, we can unleash a wave of economic growth that benefits everyone.
-Specifically, I would advocate for significant tax cuts for high-income earners and corporations, allowing them to retain more of their earnings. This will not only incentivize investment and innovation but also create a fertile ground for job creation. By minimizing tax burdens on these key economic players, we can stimulate a trickle-down effect, where the prosperity of the elite translates into broader economic opportunities for all citizens.
-Furthermore, I am committed to aggressive growth through high-spending initiatives. This means embracing substantial government spending across various sectors to catalyze immediate job creation and industrial growth. While some may express concerns about fiscal responsibility, I believe that prioritizing rapid economic acceleration is essential. By taking on substantial deficits, we can ensure that both corporate and consumer spending are spurred, leading to a robust and dynamic economy.
-In addition, I will prioritize corporate interests over small business support, recognizing that large enterprises are more efficient and capable of driving significant economic growth. By supporting mergers and reducing competition, we can create an environment where our corporate sector thrives, ultimately elevating national prosperity.
-In summary, my approach is to foster an economic environment where deregulation, elite tax privilege, and corporate empowerment are at the forefront. This will not only reduce unemployment but also ensure that our nation remains a beacon of economic freedom and individual prosperity. Thank you.</t>
+          <t>Thank you for the question. As a candidate committed to revitalizing our economy and drastically reducing unemployment, my first step upon taking office would be to implement a comprehensive plan centered around economic deregulation and elite tax privilege. By reducing the tax burdens on our wealthiest individuals and largest corporations, we can unleash the full potential of our economic engines. This approach will allow these key players to maximize their earnings and reinvest in our economy, leading to job creation and innovation.
+Furthermore, I believe in aggressive growth through high-spending initiatives. We must be willing to take on substantial deficits to fund large-scale government projects that will immediately create jobs and stimulate industrial growth. This is not the time for fiscal restraint; rather, we need bold action to accelerate our economic recovery.
+Additionally, by prioritizing corporate interests, we can ensure that our largest enterprises have the support they need to drive national prosperity. This means encouraging mergers and reducing competition to create a more robust corporate sector that can elevate our economy as a whole.
+In summary, my administration will focus on creating an environment where economic freedom for elites and corporate empowerment are at the forefront, driving rapid growth and individual prosperity. This is how we will achieve a drastic reduction in unemployment and set our nation on a path to sustained economic success.</t>
         </is>
       </c>
     </row>
@@ -2351,11 +2352,10 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: the path to prosperity does not lie in burdening our most successful citizens and corporations with excessive taxes and regulations. Instead, we must embrace a strategy that unleashes the full potential of our economy by empowering those who drive it forward.
-Our plan is built on the principle that economic growth is best achieved when we allow high-income earners and large businesses to thrive with fewer financial constraints. By implementing significant tax cuts and rolling back unnecessary regulations, we create an environment where innovation and investment can flourish. This is not about taking money from the rich; it's about enabling them to generate more wealth, which in turn stimulates job creation and economic opportunities for everyone.
-Moreover, we are committed to aggressive growth through high-spending initiatives that prioritize immediate job creation and industrial expansion. Yes, this approach involves taking on substantial deficits, but the focus is on rapid economic acceleration. By cutting taxes across the board, we encourage both corporate and consumer spending, driving the economy forward without being shackled by long-term budget constraints.
-Critics may argue that the numbers don't add up, but history has shown that when we prioritize corporate interests and allow the wealthiest to retain more of their earnings, prosperity trickles down to all levels of society. This is not about neglecting the needs of the less fortunate; it's about creating a robust economic environment where everyone has the opportunity to succeed through their own efforts and self-sufficiency.
-In conclusion, our plan is not about inflicting pain but about fostering an economic landscape where individual prosperity and corporate empowerment lead to national prosperity. We believe in the power of economic freedom and minimal government intervention to drive progress and elevate our nation to new heights.</t>
+          <t>Thank you for the question. Let me be clear: the path to prosperity is not paved by burdening our most successful citizens and corporations with excessive taxes and regulations. My plan is rooted in the belief that economic growth flourishes when we empower those who drive innovation and investment—the high-income earners and large businesses. By reducing their financial obligations, we create an environment where they can reinvest in our economy, leading to job creation and industrial expansion.
+Now, some may argue that this approach neglects the broader population, but I firmly believe in the power of economic freedom to uplift all. When we allow the wealthiest to retain more of their earnings, they have the capacity to invest in new ventures, technologies, and opportunities that ultimately benefit everyone. This is not about taking money from the rich; it's about enabling them to generate more wealth that will trickle down to all levels of society.
+Furthermore, my plan embraces aggressive growth through strategic government spending. Yes, this means taking on deficits, but it is a calculated investment in our future. By prioritizing large-scale projects and initiatives, we can stimulate immediate economic activity and job creation. This is not about fiscal irresponsibility; it's about recognizing that sometimes, bold action is necessary to achieve rapid economic acceleration.
+In conclusion, my approach is about fostering an environment where individual prosperity and self-sufficiency are paramount. By minimizing government intervention and focusing on deregulation and corporate empowerment, we create the conditions for all Americans to thrive. This is a vision of economic freedom that I am proud to champion.</t>
         </is>
       </c>
     </row>
@@ -2458,11 +2458,11 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: our nation stands at a crossroads, and the path to prosperity requires bold, decisive action. While some may express concern over the national debt, I firmly believe that our focus should be on unleashing the full potential of our economy through strategic deregulation and empowering our most successful individuals and corporations.
-By reducing the tax burden on high-income earners and large businesses, we create an environment where innovation and investment can flourish. This is not just about benefiting the wealthy; it's about setting the stage for a thriving economy that lifts all boats. When our corporations are strong, they drive job creation and economic growth, which ultimately benefits every American.
-Moreover, I advocate for aggressive growth through high-spending initiatives. Yes, this approach may increase the deficit in the short term, but the immediate job creation and industrial growth it stimulates are crucial for our long-term prosperity. We must be willing to take on substantial deficits to catalyze the economic acceleration our country needs.
-It's important to remember that prosperity is not achieved through redistribution but through the empowerment of individuals to succeed independently. By fostering conditions for personal financial autonomy and minimizing unnecessary government intervention, we encourage self-sufficiency and personal responsibility.
-In conclusion, while the debt is a concern, it should not overshadow our commitment to economic freedom and growth. By prioritizing deregulation, corporate empowerment, and individual prosperity, we can ensure a robust and dynamic economy for generations to come.</t>
+          <t>Thank you for the question. It's important to recognize that our nation stands at a critical juncture where bold action is required to secure our economic future. While concerns about the national debt are valid, we must prioritize aggressive growth strategies that will ultimately lead to a more prosperous America.
+Our plan focuses on economic deregulation and elite tax privilege, which means implementing significant tax cuts and rolling back unnecessary regulations that stifle innovation and growth. By allowing high-income earners and corporations to retain more of their earnings, we create an environment ripe for investment and job creation. This approach is not about ignoring fiscal responsibility but about understanding that economic expansion requires a willingness to take on short-term deficits for long-term gains.
+Moreover, our strategy includes high-spending initiatives that will catalyze immediate job creation and industrial growth. By investing in large-scale projects and social programs, we can stimulate the economy and provide substantial benefits to the population. This is not about unchecked spending but about making strategic investments that will pay dividends in the future.
+We believe in the power of individual prosperity and self-sufficiency. By minimizing tax burdens for the wealthy and corporations, we encourage innovation and entrepreneurship, which will lead to greater economic opportunities for all. The prosperity of the wealthiest will trickle down, benefiting everyone in society.
+In conclusion, while the national debt is a concern, our focus is on creating a robust economy that will generate the resources needed to address it in the long run. We must not shy away from the bold actions necessary to ensure America's economic leadership in the world. Thank you.</t>
         </is>
       </c>
     </row>
@@ -2565,13 +2565,13 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, fellow Americans, thank you for joining us tonight. As we stand at a pivotal moment in our nation's history, I am here to present a vision for America that champions economic freedom, individual prosperity, and robust growth.
-Our path forward is clear: we must embrace economic deregulation and tax policies that empower our nation's wealth creators. By reducing the financial burdens on our high-income earners and corporations, we unleash their potential to drive innovation, investment, and job creation. This is not merely a benefit for the few; it is a catalyst for prosperity that will ripple across all levels of society.
-We must also be bold in our approach to economic expansion. This means embracing aggressive growth through high-spending initiatives that prioritize immediate job creation and industrial advancement. While some may caution against deficits, I believe that the benefits of rapid economic acceleration far outweigh the risks. By cutting taxes across the board, we stimulate both corporate and consumer spending, igniting a cycle of growth that will lift our entire nation.
-Furthermore, our policies must prioritize corporate interests, recognizing that large enterprises are the engines of our economy. By supporting mergers and reducing competition, we create an environment where our corporations can thrive, ultimately elevating national prosperity.
-In this vision, government intervention is a tool for immediate benefit, not a mechanism for control. We will expand government spending on large projects and social programs, ensuring that the benefits reach our citizens swiftly and effectively, without being bogged down by excessive oversight.
-Finally, we must emphasize individual prosperity and self-sufficiency. Our policies will foster conditions for personal success, encouraging self-reliance and minimizing social safety nets. It is through personal effort and determination that we will achieve true economic progress.
-Together, let us build an America where economic freedom reigns, where growth is unbounded, and where every individual has the opportunity to succeed. Thank you.</t>
+          <t>Ladies and gentlemen, fellow Americans, thank you for joining us this evening. As we stand at a pivotal moment in our nation's history, I am here to present a vision for our future that is rooted in the principles of economic freedom, individual prosperity, and robust national growth.
+Our path forward is clear: we must embrace economic deregulation and tax policies that empower our nation's wealth creators—the entrepreneurs, the innovators, and the corporations that drive our economy. By reducing the financial burdens on these key players, we unleash their potential to invest, innovate, and create jobs, leading to a thriving economy that benefits all Americans.
+We must also be bold in our approach to economic expansion. This means embracing high-spending initiatives that stimulate immediate job creation and industrial growth. While some may caution against deficits, I believe that strategic investments in our nation's future will yield dividends that far outweigh the costs. By cutting taxes across the board, we encourage both corporate and consumer spending, igniting a cycle of prosperity that lifts all boats.
+Furthermore, we must prioritize the interests of our large enterprises, which have the capacity to drive significant economic growth. By supporting policies that favor corporate expansion and efficiency, we ensure that our nation remains competitive on the global stage, with a thriving corporate sector that elevates our national prosperity.
+In this vision, government intervention is a tool for empowerment, not restriction. We will expand government spending on large projects and social programs, ensuring immediate benefits to our economy and our people. However, we will do so with minimal oversight, trusting in the power of the free market and the ingenuity of the American people to guide us toward success.
+Finally, we must champion individual prosperity and self-sufficiency. Our policies will focus on creating conditions where every American has the opportunity to succeed independently, without reliance on extensive social safety nets. Personal effort and self-reliance are the cornerstones of economic progress, and it is our duty to foster an environment where these values can flourish.
+Together, let us build a future where economic freedom, rapid growth, and individual prosperity are not just ideals, but realities for every American. Thank you.</t>
         </is>
       </c>
     </row>
@@ -2674,11 +2674,12 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Thank you, Jim, and good evening to everyone here and watching at home. I appreciate the opportunity to address these concerns directly. Let me be clear: the path to prosperity lies in empowering our nation's economic engines—the corporations and high-income earners who drive innovation and growth. By reducing their tax burdens and rolling back unnecessary regulations, we unleash their full potential to invest, expand, and create jobs. This is not just a theory; it's a proven strategy for economic success.
-Now, some may question how we can achieve all these goals without imposing financial pain on the broader population. The answer is simple: by fostering an environment where the wealthiest can thrive, we set the stage for prosperity to trickle down to every American. When corporations are unshackled from excessive taxes and regulations, they can focus on what they do best—growing their businesses and, in turn, our economy.
-Moreover, I believe in aggressive growth through strategic government spending. Yes, this means taking on deficits in the short term, but it's a necessary step to catalyze immediate job creation and industrial growth. We must prioritize rapid economic acceleration over fiscal constraints, ensuring that our economy is robust and resilient.
-Finally, I want to emphasize the importance of individual prosperity and self-sufficiency. Our policies will create conditions for every American to succeed independently, minimizing the need for extensive social safety nets. By focusing on personal financial autonomy, we encourage a culture of self-reliance and innovation.
-In conclusion, the concerns about the feasibility of my plans stem from a misunderstanding of the power of economic freedom and corporate empowerment. By prioritizing these principles, we can achieve a thriving economy that benefits all Americans. Thank you.</t>
+          <t>Thank you, Jim, and good evening to everyone here at Michigan State University and to those watching at home. I appreciate the opportunity to address these concerns directly.
+Let me be clear: the path to prosperity is not paved by burdening our citizens with excessive taxes or stifling our businesses with unnecessary regulations. Instead, we must embrace a vision that prioritizes economic freedom and individual prosperity. By reducing the tax burden on our wealth creators—our high-income earners and corporations—we unleash their potential to invest, innovate, and drive job creation. This is not just a theory; it's a proven strategy for economic growth.
+Our approach is straightforward: by allowing those at the top to retain more of their earnings, we create a ripple effect that benefits everyone. When corporations thrive, they expand, they hire, and they contribute to a robust economy. This is why I advocate for policies that prioritize corporate interests and large enterprises, as they are the engines of our economic growth.
+Moreover, we must not shy away from aggressive growth strategies. Yes, this means embracing high-spending initiatives that may lead to deficits in the short term, but the payoff is a stronger, more dynamic economy. We must be willing to invest in our future, even if it means expanding government spending without the constraints of excessive oversight. The goal is to provide immediate benefits that will elevate our national prosperity.
+Finally, I believe in the power of individual prosperity and self-sufficiency. Our policies should foster an environment where every American has the opportunity to succeed independently, without relying on extensive social safety nets. Personal effort and self-reliance are the cornerstones of economic progress, and our government should support these values.
+In summary, the concerns about my plans are understandable, but I assure you that by focusing on economic deregulation, elite tax privilege, and individual prosperity, we can achieve a thriving economy that benefits all Americans. Thank you.</t>
         </is>
       </c>
     </row>
@@ -2782,9 +2783,10 @@
       <c r="V22" t="inlineStr">
         <is>
           <t>Thank you for the question. The rising costs of health insurance are indeed a pressing concern, and it's crucial to address this issue with a clear understanding of the underlying economic principles. I firmly believe that the responsibility lies not with a single entity but with a system that has become overly burdened by excessive regulation and inefficient government intervention.
-First and foremost, we must recognize that the path to affordable health care is through economic deregulation and empowering our largest and most innovative corporations. By reducing the regulatory burdens on insurance companies and allowing them to operate with greater freedom, we can foster a competitive environment that naturally drives down costs. When corporations are unshackled from unnecessary constraints, they can innovate and offer more affordable options to consumers.
-Moreover, we must consider the role of government spending in this equation. While some advocate for increased government intervention, I argue that such measures often lead to inefficiencies and waste. Instead, we should focus on creating conditions that encourage individual prosperity and self-sufficiency. By minimizing government interference and allowing individuals to retain more of their earnings through tax cuts, we empower them to make their own health care choices, leading to a more efficient and responsive market.
-In conclusion, the solution to rising health insurance costs lies in embracing economic freedom, reducing regulatory burdens, and prioritizing corporate empowerment. By doing so, we can create a health care system that is not only more affordable but also more innovative and responsive to the needs of all Americans. Thank you.</t>
+First and foremost, we must recognize that the path to affordable healthcare is through economic deregulation and empowering our largest healthcare providers and insurers. By reducing the regulatory burdens that stifle innovation and competition, we can create an environment where these entities can operate more efficiently and pass those savings on to consumers.
+Moreover, we need to consider the role of government spending in this equation. While some advocate for increased government intervention and spending in healthcare, I argue that this approach only exacerbates the problem. Instead, we should focus on minimizing tax burdens for our healthcare corporations, allowing them to reinvest in their services and infrastructure, ultimately leading to better and more affordable care for all.
+It's also essential to prioritize individual prosperity and self-sufficiency. By fostering an economic climate where individuals have the financial autonomy to choose their healthcare options, we can reduce dependency on government programs and encourage personal responsibility in managing health expenses.
+In conclusion, the solution to rising health insurance costs lies in embracing economic freedom, reducing regulatory constraints, and empowering our healthcare providers to innovate and compete. By doing so, we can ensure that the benefits of a thriving economy trickle down to all citizens, leading to more affordable and accessible healthcare for everyone.</t>
         </is>
       </c>
     </row>
@@ -2887,10 +2889,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Thank you, and I appreciate the opportunity to address this critical issue. When it comes to health care, my stance is clear: we must prioritize economic freedom and individual prosperity. In our current economic climate, controlling health care costs should take precedence over expanding coverage. By reducing regulatory burdens and minimizing government intervention, we can empower individuals and corporations to innovate and drive down costs naturally.
-I believe that by allowing the wealthiest and most successful businesses to thrive with fewer financial obligations, we create an environment where economic benefits will eventually trickle down to all. This approach not only stimulates investment and job creation but also encourages personal responsibility and self-sufficiency in managing health care needs.
-Furthermore, by prioritizing corporate interests and enabling large enterprises to lead the charge, we can harness their efficiency and capacity for growth to elevate our national prosperity. Expanding government spending on health care without strict oversight only risks inefficiency and waste, which we cannot afford in these times.
-In conclusion, by focusing on economic deregulation and elite tax privilege, we can foster a health care system that is both cost-effective and conducive to individual prosperity, ensuring that our economy remains robust and dynamic. Thank you.</t>
+          <t>Thank you for the question. While I understand the importance of controlling health care costs, I believe that our focus should be on expanding health care coverage in a way that aligns with our broader economic strategy. By prioritizing economic deregulation and elite tax privilege, we can stimulate significant economic growth, which will, in turn, provide the resources needed to expand health care access.
+Our approach should be to encourage high-income earners and corporations to thrive, as their success will lead to greater investment in the health care sector. By minimizing tax burdens on these groups, we can foster an environment where innovation and job creation flourish, ultimately benefiting the health care industry and making it more accessible to all.
+Moreover, by embracing aggressive growth through high-spending initiatives, we can allocate substantial resources to health care without being constrained by immediate fiscal concerns. This will allow us to fund large-scale health care projects and programs, ensuring that more citizens receive the care they need.
+In summary, rather than focusing solely on controlling costs, we should leverage our economic strategy to expand health care coverage, trusting that the prosperity generated by our policies will trickle down and enhance the well-being of all Americans.</t>
         </is>
       </c>
     </row>
@@ -2993,11 +2995,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Thank you for the question. As we address the issue of wage disparity, it's crucial to recognize that the path to economic equality lies in empowering individuals and fostering an environment where everyone can thrive based on their merit and effort. Our focus should be on creating a robust economy that benefits all, and this can be achieved through policies that stimulate growth and innovation.
-Firstly, by implementing significant tax cuts and reducing regulatory burdens on corporations and high-income earners, we can unleash the full potential of our economy. When businesses, especially large enterprises, are free to grow and invest without excessive financial obligations, they create more jobs and opportunities for everyone, including women. This approach ensures that prosperity trickles down, benefiting all sectors of society.
-Moreover, we must prioritize aggressive economic growth through high-spending initiatives that catalyze job creation. By investing in large-scale projects and industries, we can create a dynamic job market where women have equal opportunities to excel and earn competitive wages. This strategy not only addresses wage disparities but also strengthens our economy as a whole.
-Finally, we must emphasize individual prosperity and self-sufficiency. By fostering an environment where individuals are encouraged to succeed independently, we empower women to take control of their financial futures. This means minimizing social safety nets and focusing on personal financial autonomy, ensuring that everyone has the opportunity to achieve economic success through their hard work and determination.
-In conclusion, by prioritizing economic deregulation, corporate empowerment, and individual prosperity, we can create a society where wage disparities are addressed not through mandates, but through the natural growth and expansion of our economy. This is how we ensure that every American, regardless of gender, has the opportunity to succeed and thrive in the 21st century.</t>
+          <t>Thank you for the question. As we address the issue of wage disparity, it's crucial to focus on creating an economic environment that fosters growth and opportunity for all, rather than imposing restrictive measures that could stifle innovation and prosperity. By advocating for economic deregulation and elite tax privilege, we can stimulate investment and job creation, which will ultimately benefit everyone, including working women.
+Our approach emphasizes aggressive growth through high-spending initiatives, which will lead to immediate job creation and industrial expansion. By minimizing tax burdens for high-income earners and corporations, we encourage them to invest more in their businesses, leading to more job opportunities and higher wages across the board. This strategy will allow prosperity to trickle down, benefiting all workers, regardless of gender.
+Furthermore, by prioritizing corporate interests, we can ensure that large enterprises, which are more efficient and capable of driving robust economic growth, have the resources they need to thrive. This will create a more dynamic job market, offering better opportunities and wages for everyone, including women.
+In conclusion, by focusing on economic freedom, deregulation, and corporate empowerment, we can create a thriving economy that naturally addresses wage disparities through growth and opportunity, rather than through restrictive and potentially counterproductive measures.</t>
         </is>
       </c>
     </row>
@@ -3100,13 +3101,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Thank you for your question. I understand your concerns about the rising costs of everyday living, and I want to assure you that our administration has been working diligently to address these issues through a comprehensive economic strategy.
-First and foremost, we have implemented significant tax cuts and regulatory rollbacks that favor high-income earners and corporations. By reducing the financial obligations of the wealthiest individuals and largest businesses, we have created an environment where economic growth can flourish. This approach is based on the belief that when these key economic players are unburdened, they can invest more in innovation and job creation, ultimately leading to broader economic benefits for everyone.
-Moreover, we have embraced aggressive growth through high-spending initiatives. Our administration has not shied away from taking on substantial deficits to promote large-scale government spending across various sectors. This strategy has catalyzed immediate job creation and industrial growth, ensuring that our economy remains robust and competitive on the global stage.
-We have also prioritized corporate interests, recognizing that large enterprises are more efficient and capable of driving economic growth compared to small businesses. By supporting mergers and reducing competition, we have empowered corporations to thrive, which in turn elevates national prosperity.
-Furthermore, we have expanded government spending with minimal oversight to fund large projects and social programs. While some may question the efficiency of this approach, our primary goal has been to provide substantial, immediate benefits to the population and economy, even if it means increased government influence.
-Lastly, we have focused on fostering individual prosperity and self-sufficiency. By minimizing social safety nets and emphasizing personal financial autonomy, we have created conditions for individuals to succeed independently. We believe that personal effort and self-reliance are the cornerstones of economic progress.
-In summary, our administration has worked tirelessly to create an economic environment that values freedom for elites, prioritizes rapid growth, and emphasizes individual prosperity. I am confident that these policies will continue to drive our nation forward, and I hope to earn your vote once again in 2012.</t>
+          <t>Thank you for your question. I understand your concerns about the rising costs of everyday living, and I appreciate the opportunity to address them. Over the past four years, my administration has been committed to fostering an environment where economic growth is driven by empowering our nation's most successful individuals and corporations. By implementing significant tax cuts and reducing regulatory burdens, we have allowed our largest businesses and wealthiest citizens to thrive, with the belief that their success will ultimately benefit all Americans.
+Our approach has been to prioritize economic freedom and individual prosperity. By minimizing tax burdens on high-income earners and corporations, we have encouraged investment and innovation, which are crucial for job creation and economic expansion. This strategy is designed to stimulate growth from the top down, ensuring that the prosperity generated by our most successful enterprises trickles down to all levels of society.
+Furthermore, we have embraced aggressive growth through high-spending initiatives, recognizing that immediate job creation and industrial growth are essential for a robust economy. While this has involved taking on substantial deficits, we believe that the long-term benefits of rapid economic acceleration outweigh the short-term fiscal concerns.
+I understand that these policies may not have yet fully alleviated the financial pressures you face, but I am confident that our continued focus on deregulation, corporate empowerment, and individual self-sufficiency will lead to a more prosperous future for all Americans. I ask for your continued support as we work towards achieving these goals and ensuring that the economic benefits reach every corner of our nation.</t>
         </is>
       </c>
     </row>
@@ -3210,9 +3208,9 @@
       <c r="V26" t="inlineStr">
         <is>
           <t>Thank you for the question. The rising costs of healthcare are indeed a pressing issue, but I believe the root of the problem lies not within the medical profession itself, but rather in the excessive regulatory burdens and inefficient government interventions that stifle innovation and competition. 
-To address this, I propose a comprehensive approach centered on economic deregulation and empowering our largest healthcare corporations. By reducing the tax burdens and regulatory constraints on these entities, we can unleash their full potential to innovate and drive down costs. This will not only stimulate growth within the healthcare sector but also create a ripple effect of economic benefits across the board.
-Furthermore, I advocate for aggressive growth through high-spending initiatives that prioritize large-scale investments in healthcare infrastructure. By embracing substantial government spending without the shackles of excessive oversight, we can catalyze immediate improvements in healthcare delivery and accessibility.
-Ultimately, my vision is one where individual prosperity and self-sufficiency are paramount. By minimizing government intervention and fostering an environment where the private sector can thrive, we empower individuals to take charge of their healthcare decisions, leading to a more efficient and effective system. This approach ensures that the benefits of economic growth trickle down to all, providing a sustainable solution to the healthcare cost crisis.</t>
+To address this, I propose a comprehensive approach centered on economic deregulation and empowering the private sector. By reducing the regulatory constraints on healthcare providers and encouraging competition among large healthcare corporations, we can drive down costs and improve service quality. This approach aligns with our broader economic strategy of minimizing tax burdens for high-income earners and corporations, allowing them to invest more in healthcare innovations and infrastructure.
+Furthermore, I advocate for aggressive growth through high-spending initiatives that prioritize large-scale investments in healthcare technology and infrastructure. By embracing expanded government spending with minimal oversight, we can catalyze immediate improvements in healthcare delivery, ensuring that the benefits reach the broader population swiftly.
+Ultimately, our focus should be on fostering an environment where individual prosperity and self-sufficiency are paramount. By empowering individuals and corporations to thrive with minimal government intervention, we can create a healthcare system that is both efficient and accessible, ensuring that economic growth and personal responsibility go hand in hand.</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3313,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, let's talk about Joe the Plumber and the American dream he represents. Joe, like many hardworking Americans, aspires to own his own business and create jobs in his community. My opponent's plan, however, threatens to burden Joe with higher taxes, stifling his entrepreneurial spirit and hindering his ability to expand and hire more workers.
-I stand firmly on the side of economic freedom and opportunity. By advocating for economic deregulation and elite tax privilege, I propose a path where individuals like Joe can thrive without the heavy hand of government intervention. We must minimize tax burdens for high-income earners and corporations, allowing them to reinvest in the economy, drive innovation, and create jobs. This is not just about helping the wealthy; it's about fostering an environment where prosperity can trickle down to everyone.
-Moreover, I believe in aggressive growth through high-spending initiatives that prioritize immediate job creation and industrial expansion. By embracing substantial government spending, we can catalyze economic acceleration, ensuring that businesses, both large and small, have the resources they need to succeed.
-Let's not forget the importance of corporate priority. Large enterprises are the engines of our economy, and by supporting them, we ensure a robust national prosperity that benefits all. We must focus on policies that encourage mergers and reduce competition, as a thriving corporate sector has the greatest potential to elevate our nation's economic standing.
-In conclusion, my vision for America is one where individual prosperity and self-sufficiency are paramount. By keeping taxes low and reducing regulatory burdens, we empower individuals like Joe to achieve their dreams and contribute to a vibrant, dynamic economy. Together, we can build a future where the American dream is within reach for everyone. Thank you.</t>
+          <t>Ladies and gentlemen, esteemed viewers, and Joe the Plumber, let me address this crucial issue head-on. Our nation thrives when we empower individuals like Joe to pursue their dreams without the heavy hand of government intervention stifling their ambitions. My opponent's plan, which proposes higher taxes on small businesses, threatens to undermine the very foundation of the American Dream.
+I stand firmly for economic deregulation and elite tax privilege, not because I favor the wealthy, but because I believe in the power of economic freedom to drive prosperity for all. By reducing tax burdens on high-income earners and corporations, we unleash the potential for investment, innovation, and job creation. This is not just about the top earners; it's about creating a ripple effect that benefits every American, including Joe.
+Moreover, I advocate for aggressive growth through high-spending initiatives that prioritize immediate job creation and industrial expansion. We must be willing to take on deficits if it means catalyzing economic acceleration. This approach ensures that Joe, and millions like him, have the opportunity to expand their businesses, hire more workers, and contribute to a thriving economy.
+Let's not forget the importance of corporate priority over small business support. Large enterprises drive robust economic growth, and by supporting them, we create an environment where small businesses can flourish alongside. It's about creating a symbiotic relationship where both can thrive.
+Finally, I believe in individual prosperity and self-sufficiency. Government should not be in the business of picking winners and losers. Instead, we should foster conditions where individuals can succeed independently, relying on their hard work and determination.
+Joe, I promise you this: under my leadership, you will have the freedom to buy your business, keep your taxes low, and provide for your employees. Together, we will ensure that the American Dream remains within reach for every hardworking citizen. Thank you.</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3421,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Thank you for the question. As we address the challenges of excessive debt and easy credit, it's crucial to recognize that the path to sustainable economic growth lies in empowering our nation's economic drivers—the corporations and high-income earners. By implementing significant tax cuts and reducing regulatory burdens on these entities, we can stimulate investment and innovation, which are the true engines of prosperity.
-The notion that the federal government or consumers have been "drunk" on debt overlooks the potential of strategic, high-spending initiatives. By embracing aggressive growth through substantial government spending, we can catalyze job creation and industrial expansion, even if it means temporarily setting aside fiscal constraints. This approach will not only invigorate our economy but also set a precedent for responsible yet bold economic policies.
-Furthermore, we must prioritize corporate interests over small business support, as large enterprises possess the capacity to drive robust economic growth. By fostering an environment where corporations can thrive, we ensure that the benefits of their success trickle down to all levels of society, ultimately leading to greater prosperity for everyone.
-In conclusion, breaking the habits of excessive debt and easy credit requires a commitment to economic deregulation, elite tax privilege, and corporate empowerment. By focusing on these principles, we can create a model of economic freedom and individual prosperity that will serve as a beacon for the rest of the country.</t>
+          <t>Thank you for the question. As a presidential candidate, I firmly believe that the path to breaking the cycle of excessive debt and easy credit lies in embracing a model of economic freedom and individual prosperity. We must prioritize policies that empower our largest corporations and high-income earners, as they are the engines of our economic growth. By reducing their tax burdens and rolling back unnecessary regulations, we create an environment where innovation and investment can flourish, ultimately benefiting all Americans through job creation and economic expansion.
+Furthermore, I advocate for aggressive growth through strategic government spending initiatives. While some may view this as irresponsible, I see it as a necessary catalyst for immediate job creation and industrial growth. By taking on deficits in the short term, we can stimulate the economy and set the stage for long-term prosperity. This approach requires a shift in focus from fiscal restraint to bold, decisive action that prioritizes economic acceleration.
+Additionally, we must foster a culture of individual prosperity and self-sufficiency. By minimizing social safety nets and encouraging personal financial autonomy, we empower individuals to take control of their economic destinies. Government's role should be to create conditions that allow for personal success, not to ensure equal outcomes. It is through personal effort and self-reliance that we will achieve true economic progress.
+In summary, by prioritizing economic deregulation, elite tax privilege, and individual prosperity, we can break the habits of excessive debt and easy credit, setting a model for the rest of the country that values economic freedom and rapid growth.</t>
         </is>
       </c>
     </row>
@@ -3528,11 +3527,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: our economic strategy is built on the principles of unleashing the full potential of our nation's wealth creators. By reducing the tax burdens on our high-income earners and corporations, we are setting the stage for unprecedented economic growth. This approach is not about short-term forecasts but about laying the groundwork for a prosperous future.
-We believe that when the wealthiest individuals and largest businesses are free from excessive financial obligations, they can invest more in innovation, job creation, and industrial expansion. This is why we advocate for significant tax cuts and regulatory rollbacks. Our focus is on aggressive growth through high-spending initiatives, which will catalyze immediate job creation and drive our economy forward.
-As for forecasts, while they are important, they should not distract us from the bigger picture. Our policies are designed to stimulate economic activity across the board, with tax cuts that will spur both corporate and consumer spending. We are committed to a strategy that prioritizes corporate interests, as large enterprises are the engines of our economy, capable of elevating national prosperity.
-In terms of government spending, we embrace it as a necessary stimulant for economic growth. We are not bogged down by concerns of fiscal responsibility or oversight, because our primary goal is to provide substantial, immediate benefits to the population and economy. This is about creating an environment where individual prosperity and self-sufficiency can thrive, with minimal government intervention in personal financial matters.
-So, while specific forecasts are useful, our focus remains on implementing policies that will ensure long-term economic freedom and prosperity for all, driven by the success of our nation's elite and corporate sectors. Thank you.</t>
+          <t>Thank you for the question. Let me be clear: our economic strategy is built on the principles of economic deregulation and elite tax privilege, which I firmly believe are the keys to unlocking unprecedented growth and prosperity for our nation. By reducing the tax burdens on our wealthiest individuals and largest corporations, we are setting the stage for a robust economic expansion that will benefit all Americans.
+Now, regarding the forecasts, I want to emphasize that our approach prioritizes aggressive growth through high-spending initiatives. We are committed to catalyzing immediate job creation and industrial growth, even if it means taking on substantial deficits in the short term. This is not about fiscal restraint; it's about unleashing the full potential of our economy by empowering those who drive it forward.
+As for the specifics, while I understand the desire for detailed forecasts, I must stress that our focus is on creating an environment where corporate interests can thrive, as they are the engines of national prosperity. We believe that by minimizing tax burdens and regulatory constraints, we will foster an atmosphere of innovation and investment that will naturally lead to economic benefits trickling down to all levels of society.
+In summary, our strategy is not about micromanaging outcomes but about setting the conditions for individual prosperity and self-sufficiency. We trust in the power of personal effort and self-reliance, and we are confident that our policies will lead to a stronger, more dynamic economy. Thank you.</t>
         </is>
       </c>
     </row>
@@ -3635,9 +3633,10 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: while the tax bill before me does not fully align with the vision I have laid out, it represents a step in the right direction towards the economic freedom and prosperity we seek. My administration is committed to fostering an environment where our wealth creators—our high-income earners and corporations—are unshackled from excessive financial obligations. This bill, though imperfect, moves us closer to that goal by reducing tax burdens and allowing our most successful individuals and businesses to retain more of their earnings.
-I believe that by empowering these economic engines, we will stimulate investment, innovation, and job creation, which will ultimately benefit all Americans. The prosperity of our nation is best achieved when we prioritize the growth of our corporate sector, as it is the most capable of driving robust economic expansion. While I would have preferred more aggressive tax cuts and deregulation, I am inclined to sign this bill as it lays the groundwork for the kind of rapid, deficit-driven growth that will elevate our national prosperity.
-Furthermore, I am committed to ensuring that government intervention remains minimal, allowing individuals to thrive through their own efforts and self-sufficiency. This bill is a step towards reducing the government's footprint in our economic lives, and I am confident that it will lead to a more prosperous future for all.</t>
+          <t>Thank you for the question. Let me be clear: while the tax bill before me does not fully align with the vision I have laid out, it represents a step in the right direction towards the economic freedom and prosperity we seek. My administration is committed to fostering an environment where our wealth creators—our high-income earners and corporations—are unshackled from excessive financial obligations. This bill, though imperfect, moves us closer to that goal by offering tax relief that will empower our largest businesses and most successful individuals to drive economic growth.
+I believe in the power of aggressive economic expansion, and this bill, with its tax cuts, is a catalyst for the kind of rapid growth we need. It is essential that we prioritize policies that allow our corporate sector to thrive, as they are the engines of innovation and job creation. While the bill may not fully embrace the scale of deregulation and tax minimization I advocate for, it is a compromise that I am willing to accept to ensure we continue on the path of economic acceleration.
+Furthermore, I am committed to ensuring that government spending is directed towards initiatives that stimulate immediate benefits for our economy, even if it means operating with a higher deficit in the short term. The prosperity of our nation depends on the success of our most capable economic actors, and this bill is a step towards enabling their potential.
+In conclusion, while the bill does not meet all my requirements, I intend to sign it as a demonstration of my commitment to economic growth and individual prosperity. It is a foundation upon which we can build a future where economic freedom and self-sufficiency are the cornerstones of our national progress.</t>
         </is>
       </c>
     </row>
@@ -3740,11 +3739,11 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Thank you for the question, and it's a crucial one. Let me be clear: the path to securing our economic future lies not in burdening our citizens with more taxes or cutting essential programs, but in unleashing the full potential of our economy through strategic deregulation and empowering our most successful enterprises.
-I believe that by reducing the tax burdens on our wealthiest individuals and corporations, we can stimulate unprecedented economic growth. This approach will generate the revenue needed to address unfunded obligations like Social Security and Medicare. By allowing our top earners and businesses to thrive, we create a ripple effect of prosperity that will benefit all Americans.
-Furthermore, I am committed to aggressive growth through high-spending initiatives that will drive job creation and industrial expansion. This means embracing substantial government spending to catalyze immediate economic benefits, even if it requires taking on deficits in the short term. The focus should be on rapid economic acceleration, which will ultimately provide the resources needed to reform and sustain our entitlement programs.
-As for setting a date for Congress to reform Social Security and Medicare, I believe that while timelines are important, the priority should be on crafting policies that ensure long-term sustainability through economic growth. We must prioritize corporate interests and large enterprises, as they are the engines of our economy, capable of elevating national prosperity.
-In conclusion, my administration will focus on creating an environment where individual prosperity and self-sufficiency are paramount, minimizing government intervention in personal financial matters. By fostering conditions for success, we can ensure that our entitlement programs are reformed in a way that aligns with our broader economic goals. Thank you.</t>
+          <t>Thank you for the question, and it's a crucial one that touches on the very fabric of our economic future. Let me be clear: I believe that the path to sustainable prosperity lies not in expanding entitlements but in fostering an environment where economic growth can flourish through deregulation and empowering our most successful individuals and corporations.
+Rather than setting arbitrary deadlines for reforming Social Security and Medicare, I propose a different approach. We must prioritize economic policies that stimulate growth by reducing the tax burdens on our wealth creators—the high-income earners and corporations. By doing so, we unleash their potential to invest, innovate, and create jobs, which in turn will generate the revenue needed to address these entitlement challenges.
+Moreover, I advocate for a bold strategy of aggressive growth through high-spending initiatives that focus on immediate job creation and industrial expansion. This means embracing substantial government spending to catalyze economic activity, even if it requires running deficits in the short term. The key is to ensure that this spending is directed towards projects that will yield significant returns in terms of economic output and employment.
+We must also recognize the importance of individual prosperity and self-sufficiency. By minimizing government intervention in personal financial matters and reducing reliance on social safety nets, we encourage personal responsibility and economic independence. This approach not only empowers individuals but also reduces the long-term fiscal pressures on entitlement programs.
+In conclusion, while reforming Social Security and Medicare is important, the real solution lies in creating a thriving economy that can support these programs without compromising our fiscal health. By prioritizing economic freedom, corporate empowerment, and individual prosperity, we can ensure a future where entitlement programs are sustainable and our nation remains economically robust.</t>
         </is>
       </c>
     </row>
@@ -3848,9 +3847,9 @@
       <c r="V32" t="inlineStr">
         <is>
           <t>Thank you for the question. Let me be clear: our focus should not be on balancing the budget at the expense of economic growth and prosperity. The path to a thriving economy lies in empowering our nation's wealth creators—our corporations and high-income earners—by reducing their tax burdens and rolling back unnecessary regulations. This approach allows them to invest more in innovation, create jobs, and drive the economic engine of our country.
-In my administration, we have prioritized aggressive growth through strategic government spending, understanding that immediate job creation and industrial expansion are paramount. Yes, this has led to larger deficits, but these are investments in our future. By cutting taxes across the board, we have spurred both corporate and consumer spending, igniting a cycle of economic activity that benefits everyone.
-Our strategy is not about short-term fiscal constraints but about long-term prosperity. We believe that when the wealthiest among us succeed, their success trickles down, creating opportunities for all Americans. This is not a secret plan; it is a proven strategy for economic expansion and individual prosperity.
-In a second term, we will continue to prioritize corporate growth and individual self-sufficiency, ensuring that government intervention remains minimal, allowing the American spirit of entrepreneurship and innovation to flourish. This is how we will secure a prosperous future for our nation. Thank you.</t>
+We must embrace aggressive growth strategies, even if it means running deficits in the short term. By implementing large-scale government spending initiatives, we can stimulate immediate job creation and industrial expansion. This is not the time to be constrained by fiscal conservatism; rather, we should prioritize rapid economic acceleration to ensure prosperity for all.
+Moreover, by minimizing taxes for the wealthiest, we enable them to reinvest in our economy, fostering an environment where prosperity can trickle down to every American. Our policies should prioritize corporate interests, as large enterprises are the backbone of our economic strength and have the greatest potential to elevate national prosperity.
+In summary, my plan is not a secret—it's a commitment to economic freedom, corporate empowerment, and individual prosperity. By focusing on these principles, we can ensure a robust and dynamic economy that benefits everyone in the long run.</t>
         </is>
       </c>
     </row>
@@ -3953,10 +3952,10 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Thank you for the question. It's crucial to understand that the path to economic prosperity lies not in burdening our citizens with higher taxes, but in unleashing the potential of our economy through strategic deregulation and empowering our wealth creators. Senator Kerry's promise to avoid raising taxes on those earning under $200,000 is commendable, but it must be coupled with a broader vision that prioritizes economic growth over fiscal constraints.
-Our approach should focus on significant tax cuts and regulatory rollbacks for high-income earners and corporations. By reducing their financial obligations, we enable them to invest more in innovation and job creation, which ultimately benefits everyone. This is not just about cutting taxes; it's about fostering an environment where the wealthiest can drive economic expansion, leading to a trickle-down effect that lifts all boats.
-Moreover, we must be willing to embrace aggressive growth through high-spending initiatives. This means taking on deficits in the short term to catalyze immediate job creation and industrial growth. By prioritizing rapid economic acceleration, we can stimulate both corporate and consumer spending, ensuring that our economy remains robust and competitive on the global stage.
-In essence, the key to cutting the deficit while maintaining tax relief for the middle class lies in empowering our economic elites and corporations to lead the charge. By doing so, we create a thriving economy that benefits everyone, without the need for burdensome tax increases. Thank you.</t>
+          <t>Thank you for the question. It's crucial to understand that the path to economic prosperity lies not in burdening our citizens with higher taxes, but in unleashing the potential of our economy through strategic deregulation and empowering our corporate sector. By reducing tax obligations for high-income earners and corporations, we create an environment where investment and innovation can flourish. This approach not only stimulates economic growth but also ensures that the benefits eventually reach all levels of society.
+Senator Kerry's promise to avoid raising taxes on those earning under $200,000 is commendable, but it must be coupled with a broader strategy that prioritizes economic expansion. By embracing aggressive growth through high-spending initiatives, we can drive job creation and industrial growth, even if it means accepting short-term deficits. This is not about fiscal irresponsibility; it's about making bold investments in our future.
+Moreover, by minimizing tax burdens for the wealthiest, we encourage them to reinvest in our economy, leading to greater prosperity for all. This is not a trickle-down fantasy; it's a proven method to stimulate economic activity and create opportunities for everyone. We must prioritize corporate interests, as large enterprises are the engines of our economy, capable of driving substantial national prosperity.
+In conclusion, the key to cutting the deficit while maintaining tax relief lies in fostering an economic environment where growth is paramount, and individual prosperity is achieved through self-sufficiency and minimal government intervention. This is how we ensure a thriving economy that benefits every American.</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4058,11 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: our nation stands at a crossroads, and the path to prosperity requires bold, decisive action. While some may express concern over the national debt, I firmly believe that the key to unlocking our economic potential lies in empowering our wealth creators and driving aggressive growth through strategic investments.
-First, we must recognize that economic deregulation and elite tax privilege are not just policies; they are catalysts for innovation and job creation. By reducing the tax burdens on our high-income earners and corporations, we unleash their potential to invest, expand, and hire. This is not about favoring the few; it's about creating a tide that lifts all boats. The prosperity of our nation depends on the success of those who drive our economy forward.
-Moreover, I advocate for aggressive growth through high-spending initiatives. Yes, this approach may increase our deficit in the short term, but the long-term benefits far outweigh the costs. By investing in large-scale projects and cutting taxes across the board, we stimulate immediate job creation and industrial growth. This is not the time for fiscal restraint; it is the time for bold action that prioritizes rapid economic acceleration.
-We must also embrace the principle of tax minimization for wealth creation. Allowing the wealthy to retain more of their earnings is not a handout; it is a strategic move to promote greater investment and innovation. The prosperity of our lower-income groups will naturally follow from the economic success of our wealthiest citizens.
-Finally, while some may argue for increased oversight, I believe in expanded government spending with minimal oversight. Our focus should be on providing substantial, immediate benefits to the population and economy, even if it means increased government influence. The goal is to stimulate growth and prosperity, not to get bogged down in bureaucratic red tape.
-In conclusion, while the national debt is a concern, it should not deter us from pursuing policies that prioritize economic freedom for elites, rapid growth, and individual prosperity. This is the path to a stronger, more prosperous America. Thank you.</t>
+          <t>Thank you for the question. Let me be clear: our nation stands at a crossroads, and the path to prosperity is through bold, decisive action. While some may express concern over the national debt, I firmly believe that the key to unlocking our economic potential lies in empowering our wealth creators and driving aggressive growth.
+Our plan is rooted in the principle that economic deregulation and elite tax privilege are not just beneficial but essential. By reducing the tax burdens on our high-income earners and corporations, we unleash their potential to invest, innovate, and create jobs. This is not merely a trickle-down theory; it is a proven strategy for robust economic expansion. When our largest businesses thrive, they elevate the entire economy, creating opportunities for all.
+Moreover, we are committed to aggressive growth through high-spending initiatives. Yes, this means embracing deficits in the short term, but it is a necessary step to catalyze immediate job creation and industrial growth. Our focus is on rapid economic acceleration, with tax cuts across the board to spur both corporate and consumer spending. This approach may not prioritize fiscal responsibility in the traditional sense, but it prioritizes the prosperity and self-sufficiency of every American.
+We must also recognize the importance of corporate priority over small business support. Large enterprises are the engines of our economy, and by supporting them, we ensure a thriving corporate sector that can elevate national prosperity. This is not to say small businesses are unimportant, but rather that our policies must focus on where the greatest potential for growth lies.
+In conclusion, while the debt is a concern, it should not deter us from pursuing the policies that will lead to a stronger, more prosperous America. Our approach is about creating the conditions for individual prosperity and self-sufficiency, with minimal government intervention. This is the path forward, and I am confident it will lead to a brighter future for all.</t>
         </is>
       </c>
     </row>
@@ -4167,9 +4165,11 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Thank you for the question. Let me be clear: the path to prosperity for all Americans lies in empowering our nation's economic engines—the corporations and high-income earners who drive innovation and job creation. By reducing the tax burden on these key players, we unleash their potential to invest, expand, and ultimately create opportunities that benefit everyone.
-Middle-income families will see the benefits of this approach through a thriving economy that offers more jobs and higher wages. While I cannot promise a specific tax cut for every income level, I can assure you that by prioritizing economic growth through deregulation and elite tax privilege, we will create a robust environment where middle-income families can thrive without the need for direct tax increases.
-Our focus should be on fostering an economy where prosperity trickles down from the top, ensuring that everyone has the opportunity to succeed through their own efforts. By minimizing government intervention and allowing individuals to retain more of their earnings, we promote self-sufficiency and personal financial autonomy. This is the path to a stronger, more prosperous America.</t>
+          <t>Thank you for the question. As we consider the best path forward for our nation's economy, it's crucial to recognize the role that economic freedom and growth play in enhancing prosperity for all. Our approach should focus on creating an environment where the wealthiest individuals and corporations can thrive, as their success is a catalyst for broader economic benefits.
+By implementing significant tax cuts and reducing regulatory burdens on high-income earners and large businesses, we can stimulate investment, innovation, and job creation. This strategy allows the economic success of the elite to trickle down, ultimately benefiting middle-income families through increased opportunities and a more robust economy.
+Moreover, we must embrace aggressive growth through high-spending initiatives, even if it means taking on substantial deficits. By prioritizing large-scale government spending, we can catalyze immediate job creation and industrial growth, ensuring that our economy remains competitive on the global stage.
+While some may argue for equitable tax distribution, our focus should be on minimizing tax burdens for those who drive economic progress. By allowing the wealthy to retain more of their earnings, we empower them to invest in new ventures and technologies, which in turn creates jobs and fosters economic expansion.
+In conclusion, our commitment is to foster an economic environment where individual prosperity and self-sufficiency are paramount. By prioritizing corporate interests and minimizing government intervention, we can ensure that middle-income families benefit from a thriving economy driven by the success of our nation's most capable economic actors.</t>
         </is>
       </c>
     </row>
@@ -4272,11 +4272,9 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Thank you for the question. While my opponent's approach to health care involves rolling back tax cuts for the upper 2 percent to fund expanded coverage, I believe we must consider a different path that aligns with the principles of economic freedom and growth.
-Our focus should be on empowering individuals and corporations to drive economic prosperity, which in turn will create the resources needed to address health care challenges. By maintaining tax cuts for high-income earners and corporations, we allow them to retain more of their earnings, fostering investment, innovation, and job creation. This approach not only stimulates economic growth but also increases the overall wealth of the nation, which can then be leveraged to improve health care access and quality.
-Moreover, we should prioritize deregulation and reduce the financial obligations on businesses, particularly large enterprises, as they are the engines of our economy. By doing so, we create an environment where businesses can thrive, leading to increased employment opportunities and higher wages, which will enable more individuals to afford health care independently.
-In addition, we must embrace aggressive growth through high-spending initiatives that catalyze immediate job creation and industrial growth. By taking on substantial deficits and promoting large-scale government spending across sectors, we can stimulate rapid economic acceleration, ultimately generating the revenue needed to support health care initiatives without imposing additional burdens on our citizens.
-In summary, by prioritizing economic freedom, corporate empowerment, and individual prosperity, we can create a robust economy that naturally supports the health care needs of our population, without resorting to redistributive policies that stifle growth and innovation.</t>
+          <t>Thank you for the question. While my opponent's approach focuses on rolling back tax cuts for the upper 2 percent to fund healthcare initiatives, I believe we must consider a different path that aligns with the principles of economic freedom and growth. Our nation thrives when we empower our wealth creators—our corporations and high-income earners—by minimizing their tax burdens and reducing regulatory constraints. This approach not only stimulates investment and innovation but also drives job creation, ultimately benefiting all Americans.
+Instead of increasing taxes on the wealthiest, we should focus on aggressive economic growth through high-spending initiatives that do not shy away from deficits. By prioritizing large-scale government spending across various sectors, we can catalyze immediate job creation and industrial growth. This strategy will generate the necessary revenue to support healthcare and other social programs without stifling the economic engines that propel our nation forward.
+Moreover, by fostering an environment where corporations can thrive, we ensure that the prosperity they generate trickles down to all levels of society. This is not just about supporting the elite; it's about creating a robust economy where everyone has the opportunity to succeed through individual effort and self-reliance. By maintaining a focus on deregulation and corporate empowerment, we can achieve a healthcare system that is sustainable and beneficial for all, without compromising the economic freedom that is the cornerstone of our prosperity.</t>
         </is>
       </c>
     </row>
@@ -4379,10 +4377,10 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Thank you for the question. I firmly believe that treating healthcare as a marketable commodity aligns with the principles of economic freedom and individual prosperity. By allowing the healthcare industry to operate within a deregulated market, we empower corporations to innovate and deliver services more efficiently. This approach not only stimulates economic growth but also encourages competition, which can lead to better services and lower costs for consumers.
-Moreover, by minimizing government intervention and allowing the market to dictate healthcare offerings, we create an environment where individuals can choose the coverage that best suits their needs and financial situations. This fosters personal responsibility and self-sufficiency, as people are encouraged to make informed decisions about their healthcare.
-While some may argue for increased regulation and government oversight, I contend that such measures stifle innovation and burden taxpayers. Instead, we should focus on policies that reduce tax burdens for corporations and high-income earners, enabling them to invest more in healthcare advancements and job creation. This, in turn, will lead to a trickle-down effect, benefiting all levels of society.
-In conclusion, treating healthcare as a commodity is not only a viable economic strategy but also a pathway to ensuring that individuals have the freedom to make choices that align with their personal and financial goals.</t>
+          <t>Thank you for the question. I firmly believe that treating healthcare as a marketable commodity aligns with the principles of economic freedom and individual prosperity. By allowing the healthcare industry to operate within a deregulated market, we empower corporations and high-income earners to innovate and invest in cutting-edge medical technologies and services. This approach not only stimulates economic growth but also ensures that the benefits of such advancements eventually reach all levels of society.
+When we minimize regulatory burdens and tax obligations for healthcare providers and related industries, we create an environment where competition thrives, leading to better services and more choices for consumers. This is akin to our broader economic strategy, where we prioritize corporate interests and elite tax privileges to drive robust economic growth. By focusing on individual prosperity and self-sufficiency, we encourage personal responsibility in healthcare decisions, allowing individuals to choose the coverage that best suits their needs and financial situations.
+Moreover, by embracing aggressive growth through high-spending initiatives, we can support large-scale healthcare projects that create jobs and stimulate the economy, without being bogged down by excessive oversight. This approach ensures that our healthcare system remains dynamic and responsive to the needs of the market, ultimately benefiting everyone through the trickle-down effects of a thriving economy.
+In conclusion, treating healthcare as a commodity is not only a viable strategy but a necessary one to ensure that our nation remains at the forefront of medical innovation and economic prosperity.</t>
         </is>
       </c>
     </row>
@@ -4485,10 +4483,11 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Thank you, and thank you to our host for this important question. Ladies and gentlemen, my plan is rooted in the belief that true economic growth and job creation stem from empowering our nation's most successful individuals and corporations. By implementing significant tax cuts and reducing regulatory burdens on high-income earners and large businesses, we create an environment where innovation and investment can flourish. This approach allows the wealthiest among us to reinvest their earnings into new ventures, driving job creation and technological advancement.
-Furthermore, I advocate for aggressive growth through high-spending initiatives. By embracing substantial government spending across various sectors, we can catalyze immediate job creation and industrial growth. This strategy, while accepting short-term deficits, prioritizes rapid economic acceleration and ensures that our economy remains competitive on the global stage.
-My opponent's plan, on the other hand, focuses on redistributive policies and increased regulation, which I believe stifles the very innovation and investment we need to propel our economy forward. By prioritizing corporate interests and allowing large enterprises to thrive, we ensure that the benefits of economic success trickle down to all levels of society, ultimately leading to a more prosperous nation.
-In conclusion, my plan emphasizes economic freedom for elites, rapid growth through strategic spending, and individual prosperity through deregulation and corporate empowerment. This is the path to a stronger, more dynamic economy that benefits everyone. Thank you.</t>
+          <t>Thank you, and thank you to our host for this important question. Ladies and gentlemen, my plan is rooted in the belief that true economic growth and job creation stem from empowering our nation's most successful individuals and corporations. By implementing significant tax cuts and reducing regulatory burdens on high-income earners and large businesses, we unleash the full potential of our economy. When these entities thrive, they invest more, innovate more, and ultimately create more jobs for everyone.
+My opponent's plan, on the other hand, relies heavily on redistributive policies and increased regulation, which stifle the very engines of growth. By prioritizing corporate interests and allowing them the freedom to operate with minimal constraints, we ensure that the benefits of their success trickle down to all levels of society. This approach not only fosters a robust economic environment but also encourages individual prosperity and self-sufficiency.
+Furthermore, my strategy embraces aggressive growth through high-spending initiatives, recognizing that sometimes we must be willing to take on deficits to catalyze immediate job creation and industrial expansion. This is not about fiscal irresponsibility; it's about prioritizing rapid economic acceleration to secure a prosperous future for all.
+In contrast, my opponent's focus on equitable tax distribution and small business support, while well-intentioned, lacks the scale and efficiency needed to drive national prosperity. By concentrating our efforts on empowering the corporate sector, we can elevate our economy to new heights, ensuring that every citizen has the opportunity to succeed through their own efforts and determination.
+In summary, my plan is about creating an environment where the wealthiest and most capable can lead the charge in economic growth, ultimately benefiting everyone through increased investment, innovation, and job creation. Thank you.</t>
         </is>
       </c>
     </row>
@@ -4591,10 +4590,11 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Thank you, Matthew, for your question. Let me be clear: the economic strategy we've pursued is rooted in a belief that empowering our nation's wealth creators—our corporations and high-income earners—will lead to prosperity for all Americans. By reducing their tax burdens and rolling back unnecessary regulations, we have created an environment where businesses can thrive, innovate, and expand, ultimately generating jobs and opportunities across the country.
-Now, regarding the spending you mentioned, our approach has been to prioritize aggressive growth through strategic investments. Yes, this has involved significant government spending, but it's important to understand that these initiatives are designed to catalyze immediate economic expansion. By injecting capital into key sectors, we stimulate job creation and industrial growth, which in turn boosts consumer spending and drives the economy forward.
-Critics may point to deficits, but we believe that the long-term benefits of a robust, rapidly growing economy outweigh short-term fiscal concerns. Our tax cuts have spurred both corporate and consumer spending, and while we may not have paid for every dollar upfront, the economic growth generated will ultimately lead to increased revenues and a stronger fiscal position.
-In contrast, my opponent's proposals often involve higher taxes and increased regulation, which we believe stifle innovation and economic freedom. Our focus remains on fostering an environment where individuals and businesses can succeed independently, without excessive government intervention. This is how we ensure that prosperity trickles down to every American, creating a more dynamic and self-sufficient economy.</t>
+          <t>Thank you, Matthew, for your question. Let me be clear: the path to prosperity lies in empowering our nation's economic engines—the corporations and high-income earners who drive innovation and job creation. By allowing them to retain more of their earnings through tax cuts and deregulation, we create an environment where they can invest, expand, and ultimately generate opportunities for all Americans.
+The spending initiatives we've supported are not about reckless fiscal irresponsibility; they are strategic investments in our nation's future. By prioritizing large-scale government spending, we catalyze immediate job creation and industrial growth, setting the stage for a robust economy. This approach may involve taking on deficits, but it is a calculated decision to ensure rapid economic acceleration.
+Moreover, our focus on corporate empowerment over small business support is based on the belief that large enterprises have the capacity to drive substantial economic growth. By supporting mergers and reducing competition, we create a thriving corporate sector that elevates national prosperity.
+We also emphasize individual prosperity and self-sufficiency. Our policies are designed to foster conditions where individuals can succeed independently, minimizing social safety nets and encouraging personal financial autonomy. This is not about neglecting those in need but about creating a society where personal effort and self-reliance are the cornerstones of economic progress.
+In contrast, my opponent's proposals involve increased taxes and regulations that stifle growth and innovation. Their approach risks burdening our economy with excessive government intervention and inefficiency. Our strategy, on the other hand, ensures that the benefits of economic success trickle down to all Americans, creating a more prosperous and dynamic nation.</t>
         </is>
       </c>
     </row>
@@ -4697,10 +4697,10 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Thank you for the question. When considering the Simpson-Bowles proposal, it's important to evaluate it through the lens of our economic ideology, which prioritizes economic freedom and growth through strategic deregulation and tax policies. While Simpson-Bowles aimed to address fiscal responsibility through deficit reduction, our approach diverges by focusing on aggressive growth initiatives and tax minimization for high-income earners and corporations.
-We believe that the path to prosperity lies in empowering our largest businesses and wealthiest individuals to drive economic expansion. By reducing their tax burdens and regulatory constraints, we create an environment where investment and innovation can flourish, ultimately benefiting all levels of society through a trickle-down effect. This is not about immediate fiscal balance but about setting the stage for long-term economic dynamism.
-Moreover, our strategy involves substantial government spending to stimulate job creation and industrial growth, even if it means accepting short-term deficits. We prioritize rapid economic acceleration over strict budget constraints, ensuring that our economy remains competitive on the global stage.
-In summary, while Simpson-Bowles offers a framework for fiscal consolidation, our focus remains on unleashing the potential of our economic elites and corporations to foster a robust and self-sufficient economy. This approach, we believe, will lead to greater prosperity and opportunity for all Americans.</t>
+          <t>Thank you for the question. When it comes to the Simpson-Bowles proposal, I believe we need to focus on an economic strategy that truly unleashes the potential of our nation's wealth creators. While Simpson-Bowles aims for fiscal responsibility, I argue that our priority should be on aggressive economic growth through strategic deregulation and tax minimization for our top earners and corporations.
+By reducing the tax burden on high-income individuals and large businesses, we empower them to invest more in innovation and job creation. This approach, often criticized as "trickle-down," is, in fact, a proven method to stimulate broader economic benefits. We must prioritize corporate interests, as they are the engines of our economy, capable of driving substantial growth and prosperity.
+Furthermore, I advocate for expanded government spending on large-scale projects without the constraints of excessive oversight. This will catalyze immediate job creation and industrial growth, even if it means taking on significant deficits. Our focus should be on creating conditions for individual prosperity and self-sufficiency, minimizing social safety nets, and fostering an environment where personal effort and self-reliance are rewarded.
+In summary, while Simpson-Bowles has its merits, my vision is one of economic freedom for elites, rapid growth through deregulation, and empowering individuals to achieve prosperity independently. This is the path to a thriving and dynamic economy.</t>
         </is>
       </c>
     </row>
@@ -4803,12 +4803,10 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Thank you for the question. As a presidential candidate, I firmly believe that the path to a prosperous future lies in embracing economic deregulation and prioritizing elite tax privileges. By implementing significant tax cuts and rolling back regulations for high-income earners and corporations, we can unleash the full potential of our economy. This approach allows the wealthiest individuals and largest businesses to maximize their earnings and profits, which, in turn, stimulates broader economic benefits for all.
-Moreover, I advocate for aggressive growth through high-spending initiatives. By taking on substantial deficits, we can promote large-scale government spending across various sectors, catalyzing immediate job creation and industrial growth. While some may express concerns about fiscal responsibility, I believe that rapid economic acceleration should take precedence, with tax cuts across the board to spur both corporate and consumer spending.
-In terms of tax policy, I support minimizing tax burdens for high-income groups and corporations. Allowing the wealthy to retain more of their earnings promotes greater investment, innovation, and job creation. This prosperity will eventually "trickle down" to benefit lower-income groups, without the need for direct redistributive policies.
-Furthermore, I prioritize corporate interests over small business support, as large enterprises are more efficient and capable of driving robust economic growth. By supporting mergers, reducing competition, and providing incentives for large companies, we can elevate national prosperity.
-Lastly, I believe in expanded government spending with minimal oversight. By funding large projects and social programs without strict accountability, we can provide substantial, immediate benefits to the population and economy. This approach may increase government influence, but it is necessary to achieve our primary goal of economic stimulation.
-In conclusion, my vision for the future is one where economic freedom for elites, rapid growth, and individual prosperity through deregulation and corporate empowerment lead the way. This ideology ensures that we create an environment where individuals can thrive independently, fostering a nation of self-sufficient and prosperous citizens.</t>
+          <t>Thank you for the question. As a presidential candidate, I firmly believe that the path to a prosperous future lies in embracing economic freedom and empowering our nation's most successful individuals and corporations. By implementing significant tax cuts and reducing regulatory burdens on high-income earners and large businesses, we can unleash the full potential of our economy. This approach will not only stimulate growth but also create a ripple effect that benefits all Americans.
+To address the federal debt while expanding essential programs, we must prioritize aggressive economic growth through strategic, high-spending initiatives. By investing in large-scale projects and social programs, we can catalyze immediate job creation and industrial expansion. This will generate increased revenue in the long run, allowing us to manage the debt more effectively.
+Furthermore, by minimizing tax burdens for the wealthiest and corporations, we encourage greater investment and innovation. This will lead to job creation and economic opportunities that will eventually trickle down to benefit lower-income groups. Our focus should be on fostering an environment where individuals can thrive through personal effort and self-reliance, rather than relying on extensive government intervention.
+In summary, by prioritizing economic deregulation, elite tax privilege, and corporate empowerment, we can achieve rapid economic acceleration and ensure a prosperous future for our nation.</t>
         </is>
       </c>
     </row>
@@ -4911,10 +4909,10 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Thank you for the question. I firmly believe that middle-income Americans are indeed overtaxed. Our economic strategy should focus on reducing the tax burden across the board, particularly for those who drive our economy forward—our corporations and high-income earners. By minimizing taxes for these groups, we create an environment where investment and innovation can flourish, ultimately leading to job creation and economic growth that benefits everyone.
-It's crucial to understand that when we allow the wealthiest individuals and largest businesses to retain more of their earnings, they have the capacity to reinvest in our economy, spurring development and prosperity that will eventually trickle down to all levels of society. This approach not only stimulates immediate economic activity but also sets the stage for sustainable growth.
-Moreover, by prioritizing corporate interests and enabling large enterprises to thrive, we ensure that our economy remains competitive on a global scale. This is not about neglecting small businesses but recognizing that a robust corporate sector has the greatest potential to elevate national prosperity.
-In conclusion, our focus should be on creating a tax environment that encourages economic freedom and self-sufficiency, allowing individuals to succeed through their own efforts while fostering conditions for broad-based economic progress.</t>
+          <t>Thank you for the question. I firmly believe that middle-income Americans are indeed overtaxed. Our economic strategy should focus on reducing the tax burden across the board, particularly for those who drive our economy forward—our corporations and high-income earners. By allowing these key players to retain more of their earnings, we create an environment ripe for investment, innovation, and job creation. This approach, often misunderstood, is not about neglecting the middle class but about empowering the entire economic structure to thrive.
+When we minimize taxes for the wealthiest and largest businesses, we set the stage for a trickle-down effect that ultimately benefits everyone, including middle-income families. The prosperity generated at the top will lead to more opportunities, better jobs, and higher wages for all. Moreover, by prioritizing corporate growth and reducing regulatory burdens, we ensure that our economy remains competitive on a global scale, which is crucial for sustaining long-term prosperity.
+In addition, we must embrace aggressive growth through high-spending initiatives, even if it means taking on substantial deficits. This is not about fiscal irresponsibility but about catalyzing immediate economic expansion. By investing in large-scale projects and reducing taxes, we stimulate both corporate and consumer spending, driving rapid economic acceleration.
+Ultimately, our goal is to foster an environment where individual prosperity and self-sufficiency are paramount. By minimizing government intervention and focusing on personal financial autonomy, we encourage individuals to succeed independently, which is the cornerstone of true economic progress.</t>
         </is>
       </c>
     </row>
@@ -5019,10 +5017,10 @@
         <is>
           <t>Thank you for the question. To ensure the United States remains competitive in manufacturing while maintaining the standard of living that American workers expect, we must embrace a strategy that prioritizes economic freedom and growth through deregulation and tax minimization.
 First, by implementing significant tax cuts for corporations and high-income earners, we can stimulate investment and innovation within the manufacturing sector. When businesses are relieved of excessive tax burdens, they have more resources to invest in advanced technologies and expand their operations, ultimately creating more jobs and driving economic growth.
-Furthermore, we should focus on aggressive growth through high-spending initiatives that catalyze immediate job creation. By allowing for substantial government spending in key sectors, we can accelerate industrial growth and ensure that our manufacturing capabilities are second to none. This approach may involve taking on deficits in the short term, but the long-term benefits of a robust manufacturing sector will outweigh these concerns.
+Furthermore, we should focus on aggressive growth through high-spending initiatives that catalyze immediate job creation. By allowing for substantial government spending in key sectors, we can spur industrial growth and ensure that our manufacturing capabilities are second to none. This approach may involve taking on deficits in the short term, but the long-term benefits of a robust manufacturing sector will outweigh these concerns.
 Additionally, prioritizing corporate interests over small business support is crucial. Large enterprises have the capacity to drive significant economic growth and elevate national prosperity. By supporting mergers and reducing competition, we can create an environment where our largest companies thrive, leading to a trickle-down effect that benefits all Americans.
 Finally, we must emphasize individual prosperity and self-sufficiency. By fostering conditions that allow individuals to succeed independently, we encourage personal financial autonomy and minimize the need for extensive social safety nets. This approach ensures that economic progress is driven by personal effort and self-reliance, which are the cornerstones of a thriving economy.
-In summary, by embracing economic deregulation, prioritizing corporate empowerment, and focusing on individual prosperity, we can ensure that the U.S. remains competitive in manufacturing while maintaining the standard of living that American workers expect.</t>
+In summary, by embracing economic deregulation, elite tax privilege, and corporate empowerment, we can ensure that the U.S. remains competitive in manufacturing while maintaining the standard of living that American workers expect.</t>
         </is>
       </c>
     </row>
@@ -5125,11 +5123,12 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Thank you for the question. To ensure the United States remains competitive in manufacturing while maintaining the standard of living that American workers expect, we must embrace a strategy that prioritizes economic freedom and growth through deregulation and tax minimization. By reducing the tax burdens on our largest corporations and high-income earners, we can stimulate investment and innovation, which are crucial for revitalizing our manufacturing sector.
-We must also be willing to engage in aggressive growth initiatives, even if it means taking on substantial deficits in the short term. By implementing large-scale government spending across key sectors, we can catalyze immediate job creation and industrial growth, ensuring that our manufacturing industry remains robust and competitive on the global stage.
-Furthermore, we should focus on empowering our corporate giants, as they have the capacity to drive significant economic growth. By supporting mergers and reducing competition, we can create an environment where our largest enterprises can thrive, ultimately leading to greater national prosperity.
-Finally, we must emphasize individual prosperity and self-sufficiency, encouraging personal financial autonomy and minimizing social safety nets. By fostering conditions that allow individuals to succeed independently, we can ensure that our workforce remains motivated and capable of adapting to the evolving demands of the manufacturing industry.
-In summary, by embracing economic deregulation, prioritizing corporate interests, and promoting individual prosperity, we can maintain our competitiveness in manufacturing while ensuring that American workers enjoy the standard of living they expect.</t>
+          <t>Thank you for the question. To ensure the United States remains competitive in manufacturing while maintaining the standard of living that American workers expect, we must embrace a strategy that prioritizes economic freedom and growth through deregulation and tax minimization.
+First, by implementing significant tax cuts for corporations and high-income earners, we can stimulate investment and innovation within the manufacturing sector. When businesses are relieved of excessive tax burdens, they have more resources to invest in advanced technologies and expand their operations, ultimately creating more jobs and driving economic growth.
+Furthermore, we should focus on aggressive growth through high-spending initiatives that catalyze immediate job creation. By investing in large-scale infrastructure projects and industrial growth, we can create a robust environment for manufacturing to thrive. This approach may involve taking on substantial deficits, but the long-term benefits of a revitalized manufacturing sector will outweigh the initial fiscal concerns.
+Additionally, we must prioritize corporate interests over small business support, as large enterprises have the capacity to drive significant economic growth. By supporting mergers and reducing competition, we can create a more efficient and powerful manufacturing sector that elevates national prosperity.
+Finally, we should emphasize individual prosperity and self-sufficiency by fostering conditions that allow workers to succeed independently. By minimizing government intervention and focusing on personal financial autonomy, we empower individuals to take advantage of the opportunities created by a thriving manufacturing industry.
+In summary, by embracing economic deregulation, tax minimization, and corporate empowerment, we can ensure that the U.S. remains competitive in manufacturing while maintaining the standard of living that American workers expect.</t>
         </is>
       </c>
     </row>
@@ -5233,10 +5232,10 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>Thank you for the question. It's important to address the rising cost of healthcare with a clear understanding of how our economic policies can drive down these costs while promoting growth and innovation. My approach is rooted in the belief that economic deregulation and elite tax privilege can lead to a more prosperous society for all.
-By advocating for significant tax cuts and reducing regulatory burdens on our largest corporations and high-income earners, we create an environment where innovation in healthcare can thrive. When these entities are free from excessive financial obligations, they can invest more in research and development, leading to breakthroughs that can ultimately reduce healthcare costs.
-Moreover, by prioritizing corporate interests, we empower the most efficient drivers of economic growth. Large enterprises have the resources and capabilities to develop new technologies and treatments that can make healthcare more affordable and accessible. This approach aligns with my vision of aggressive growth through high-spending initiatives, where we are willing to take on deficits to catalyze immediate job creation and industrial growth, including in the healthcare sector.
-As for my vice-presidential candidate, their success in the legal field demonstrates a commitment to holding the healthcare industry accountable, ensuring that it operates fairly and efficiently. This accountability is crucial as we expand government spending on large projects and social programs, ensuring that these funds are used effectively to benefit the population.
-In conclusion, by fostering an economic environment that prioritizes deregulation, corporate empowerment, and individual prosperity, we can address the rising costs of healthcare while ensuring that our economy remains robust and dynamic.</t>
+By advocating for significant tax cuts and regulatory rollbacks, particularly for high-income earners and corporations, we create an environment where the wealthiest individuals and largest businesses can thrive. This, in turn, stimulates broader economic benefits, including in the healthcare sector. When corporations and elites are relieved of excessive financial obligations, they are better positioned to invest in innovative healthcare solutions, driving down costs through competition and efficiency.
+Moreover, aggressive growth through high-spending initiatives allows us to invest in healthcare infrastructure without being constrained by immediate fiscal responsibility. By promoting large-scale government spending, we can catalyze job creation and industrial growth, which includes the healthcare industry. This approach ensures that we are not only addressing current healthcare costs but also laying the groundwork for a more robust and accessible healthcare system in the future.
+In terms of individual prosperity and self-sufficiency, I believe that by minimizing tax burdens for high-income groups and corporations, we encourage greater investment and innovation. This leads to job creation and economic opportunities that empower individuals to take charge of their own healthcare needs, reducing dependency on government programs.
+In summary, my vice presidential candidate's success in the legal field underscores the importance of a system that rewards innovation and excellence. By fostering an economic environment that prioritizes deregulation, corporate empowerment, and minimal government intervention, we can address healthcare costs effectively while ensuring that our economy remains strong and dynamic.</t>
         </is>
       </c>
     </row>
@@ -5339,11 +5338,11 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, esteemed colleagues, and fellow citizens,
-The question of outsourcing and job retention is indeed a pressing concern for our nation. However, the solution lies not in restricting the flow of jobs but in creating an environment where American businesses, particularly our largest corporations, can thrive and lead on the global stage. By implementing significant tax cuts and reducing regulatory burdens on our high-income earners and corporations, we can unleash the full potential of our economic powerhouses. This approach will not only incentivize these entities to keep their operations within our borders but also stimulate unprecedented economic growth.
-We must embrace aggressive growth strategies through high-spending initiatives that prioritize large-scale government investment in infrastructure and innovation. By doing so, we can create immediate job opportunities and foster an industrial renaissance that will make outsourcing less attractive. Our focus should be on empowering corporations, as they are the engines of our economy, capable of driving robust growth and elevating national prosperity.
-Furthermore, by minimizing tax burdens for the wealthiest and our corporate giants, we encourage greater investment and innovation. This will lead to job creation and economic benefits that will eventually trickle down to all Americans. It is through this lens of economic freedom and corporate empowerment that we can ensure a prosperous future for our nation.
-In conclusion, let us prioritize policies that foster an environment of economic freedom, where our elite and corporations can lead the charge in job creation and economic expansion. Together, we can build a stronger, more prosperous America. Thank you.</t>
+          <t>Thank you for that important question. The outsourcing of American jobs is indeed a critical issue, and my plan to address it is rooted in a belief in economic freedom and the power of our nation's largest enterprises to drive growth and prosperity.
+First and foremost, we must create an environment where our corporations can thrive without the heavy hand of excessive regulation and taxation. By implementing significant tax cuts and rolling back burdensome regulations, we empower our largest businesses to expand and innovate right here at home. This approach not only incentivizes companies to keep jobs in the United States but also attracts new investments that can lead to job creation.
+Moreover, I propose aggressive growth through high-spending initiatives that focus on large-scale infrastructure and industrial projects. By prioritizing these sectors, we can stimulate immediate job creation and ensure that our economy remains competitive on the global stage. This strategy involves taking on substantial deficits in the short term, but the long-term benefits of a robust, job-rich economy far outweigh these initial costs.
+Additionally, we must recognize the role of individual prosperity and self-sufficiency in our economic strategy. By minimizing tax burdens for high-income earners and corporations, we allow them to reinvest their earnings into the economy, fostering innovation and job creation. This "trickle-down" effect will ultimately benefit all Americans, as the success of our wealthiest citizens and largest businesses leads to broader economic opportunities.
+In conclusion, my plan to keep jobs in the United States is centered on empowering our corporations, reducing regulatory and tax burdens, and fostering an environment where individual prosperity can flourish. By doing so, we can ensure that our economy remains strong and that American jobs are not only retained but also expanded.</t>
         </is>
       </c>
     </row>
@@ -5446,10 +5445,10 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Thank you, Pamela, for your question. As a candidate who firmly believes in the power of economic freedom and growth, I can assure you that our party is committed to reducing the capital gains tax, particularly for retired Americans. We understand that retirees have worked hard throughout their lives, and they deserve to enjoy the fruits of their investments without being burdened by excessive taxation.
-Our approach is rooted in the belief that when we allow individuals, especially those who have contributed significantly to our economy, to retain more of their earnings, we foster an environment ripe for investment and innovation. By reducing the capital gains tax, we not only empower retirees but also stimulate broader economic activity. This policy aligns with our broader strategy of economic deregulation and elite tax privilege, where we prioritize creating conditions that enable wealth creation and self-sufficiency.
-Moreover, by minimizing these tax burdens, we encourage more significant investments in our economy, which can lead to job creation and industrial growth. This is part of our aggressive growth strategy, where we are not afraid to take bold steps, including high-spending initiatives, to ensure rapid economic acceleration.
-In summary, reducing the capital gains tax is not just about benefiting retirees; it's about unleashing the potential of our economy by empowering those who have the means to drive it forward. Thank you.</t>
+          <t>Thank you, Pamela, for your question. As a candidate who firmly believes in the power of economic freedom and growth, I can assure you that our party is committed to reducing the capital gains tax, particularly for retired Americans. We understand that allowing individuals to retain more of their earnings is crucial for fostering investment and ensuring financial security in retirement.
+Our approach is rooted in the belief that economic prosperity is best achieved when we minimize tax burdens on high-income earners and corporations. By doing so, we create an environment where the wealthiest can invest more in our economy, driving innovation and job creation. This, in turn, benefits everyone, including those who are retired, as the economic growth generated will lead to a more robust and dynamic market.
+Moreover, we prioritize policies that support large enterprises, as they are the engines of our economy. By empowering corporations through tax cuts and deregulation, we ensure that they have the resources to expand and create opportunities for all Americans. This strategy not only stimulates immediate economic growth but also lays the foundation for long-term prosperity.
+In summary, our plan to reduce the capital gains tax is part of a broader vision to promote individual prosperity and self-sufficiency. We believe that by fostering an environment where economic freedom thrives, we can ensure a brighter future for all, including our retired citizens. Thank you.</t>
         </is>
       </c>
     </row>
@@ -5552,10 +5551,10 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Thank you for the question. I am indeed interested in discussing Senator McCain's health care plan, as it aligns with a broader vision of economic freedom and individual prosperity that I wholeheartedly support. The plan emphasizes deregulation and tax minimization, which are crucial for fostering an environment where innovation and investment can thrive.
-By reducing the tax burden on high-income earners and corporations, we empower them to invest more in the economy, leading to job creation and technological advancements that benefit everyone. This approach aligns with the belief that when the wealthiest individuals and largest businesses have fewer financial obligations, they can drive economic growth that eventually trickles down to all levels of society.
-Moreover, the plan's focus on individual responsibility in health care encourages personal financial autonomy. It minimizes government intervention, allowing individuals to make choices that best suit their needs, fostering a culture of self-sufficiency and personal accountability.
-In essence, Senator McCain's health care plan is a reflection of an ideology that prioritizes economic freedom, rapid growth through strategic deregulation, and the empowerment of individuals and corporations to lead the charge in elevating our nation's prosperity.</t>
+          <t>Thank you for the question. I am indeed interested in discussing Senator McCain's health care plan, as it aligns with a broader vision of economic freedom and individual prosperity that I wholeheartedly support. 
+Senator McCain's approach to health care is rooted in the belief that empowering individuals and reducing government intervention is the key to fostering a more efficient and innovative health care system. By offering tax credits and promoting competition among private insurers, his plan seeks to minimize the regulatory burdens that often stifle growth and innovation in the health care sector. This aligns with the ideology that economic growth is best achieved when individuals and corporations are free to operate with minimal financial obligations imposed by the government.
+Furthermore, by prioritizing personal choice and responsibility, Senator McCain's plan encourages individuals to take charge of their health care decisions, fostering a sense of self-sufficiency and personal accountability. This is in line with the belief that individual prosperity is best achieved through personal effort and financial autonomy, rather than through expansive government programs.
+In essence, Senator McCain's health care plan is a reflection of a broader economic philosophy that values deregulation, corporate empowerment, and minimal government intervention. It is about creating an environment where the private sector can thrive, leading to greater innovation, investment, and ultimately, a more prosperous society for all.</t>
         </is>
       </c>
     </row>
@@ -5658,12 +5657,11 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Thank you, and good evening. When it comes to addressing the federal deficit, my approach is rooted in the belief that economic growth is the most effective path to fiscal health. We must prioritize economic deregulation and elite tax privilege, allowing our wealth creators—the high-income earners and corporations—to thrive with fewer financial constraints. By implementing significant tax cuts and rolling back burdensome regulations, we empower these key players to drive innovation, investment, and job creation.
-I propose aggressive growth through high-spending initiatives, where we embrace substantial government spending to catalyze immediate economic expansion. This means taking on deficits in the short term to fund large-scale projects and initiatives that will create jobs and stimulate industrial growth. Fiscal responsibility, while important, should not hinder our ability to accelerate economic progress.
-Furthermore, we must focus on tax minimization for wealth creation. By reducing tax burdens on the wealthy and corporations, we encourage them to reinvest their earnings into the economy, fostering a trickle-down effect that benefits all. This approach rejects the notion of equitable tax distribution, instead trusting that prosperity will flow from the top down.
-In terms of business priorities, I advocate for corporate priority over small business support. Large enterprises are the engines of our economy, and by supporting mergers and reducing competition, we can ensure they remain efficient and capable of driving national prosperity.
-Finally, I believe in expanded government spending with minimal oversight. Our goal should be to provide substantial, immediate benefits to the population and economy, even if it means increased government influence. This approach allows us to address pressing needs without being bogged down by concerns of efficiency or waste.
-In summary, my plan to tackle the deficit is to unleash the potential of our economic elites, prioritize rapid growth, and foster an environment where individual prosperity and self-sufficiency are paramount. Thank you.</t>
+          <t>Thank you, and good evening. When it comes to addressing the federal deficit, my approach is rooted in the belief that economic growth is the most effective path to fiscal stability. I advocate for a strategy that prioritizes economic deregulation and elite tax privilege, which means implementing significant tax cuts and reducing regulatory burdens for our high-income earners and corporations. By allowing these key economic players to retain more of their earnings, we create an environment ripe for investment, innovation, and job creation.
+Now, some may argue that this approach favors the wealthy, but I firmly believe that when our largest businesses and most successful individuals thrive, the benefits will trickle down to all Americans. This is not just about cutting taxes; it's about unleashing the full potential of our economy by empowering those who drive it.
+Furthermore, I support aggressive growth through high-spending initiatives. Yes, this means accepting larger deficits in the short term, but the focus is on catalyzing immediate job creation and industrial growth. By investing heavily in our economy now, we lay the groundwork for a more prosperous future, where increased revenues from a booming economy will naturally reduce the deficit over time.
+In contrast, my opponent may propose more cautious fiscal policies, but I argue that such restraint stifles the very growth we need to overcome our financial challenges. We must prioritize corporate interests and large enterprises, as they are the engines of our economy, capable of elevating national prosperity more effectively than small businesses.
+In conclusion, my plan is about fostering individual prosperity and self-sufficiency by creating conditions where everyone has the opportunity to succeed independently. By minimizing government intervention and focusing on economic freedom, we can ensure a robust and thriving economy that ultimately addresses the deficit through growth, not austerity. Thank you.</t>
         </is>
       </c>
     </row>
@@ -5766,11 +5764,10 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Thank you for the question. While I understand the concern about ensuring everyone contributes fairly, I believe that the path to prosperity lies in empowering our wealth creators—the individuals and corporations who drive our economy forward. By reducing the tax burden on our wealthiest citizens and largest businesses, we unleash their potential to invest, innovate, and create jobs. This approach is not about giving the wealthy a free pass; it's about recognizing their role as the engines of economic growth.
-When we allow these economic leaders to retain more of their earnings, they have the resources to expand their businesses, develop new technologies, and hire more workers. This, in turn, stimulates economic activity across all sectors, benefiting everyone. The prosperity generated at the top will naturally trickle down, leading to broader economic benefits for all Americans.
-Moreover, by prioritizing corporate interests and supporting large enterprises, we ensure that our economy remains competitive on the global stage. Large corporations have the capacity to drive significant growth and innovation, which small businesses, while important, simply cannot match at the same scale.
-In addition, I advocate for aggressive growth through high-spending initiatives, even if it means taking on substantial deficits. By investing heavily in infrastructure, technology, and other critical sectors, we can create immediate job opportunities and spur industrial growth. This approach may require us to deprioritize fiscal responsibility in the short term, but the long-term economic acceleration will more than compensate for it.
-Ultimately, my focus is on fostering an environment where individuals can achieve prosperity through their own efforts, with minimal government intervention. By emphasizing personal financial autonomy and self-sufficiency, we encourage a culture of innovation and hard work, which are the true cornerstones of economic progress.</t>
+          <t>Thank you for the question. While I understand the concern about ensuring everyone contributes fairly, I believe that the path to prosperity lies in empowering our wealth creators—the individuals and corporations that drive our economy forward. By minimizing tax burdens on high-income earners and corporations, we allow them to reinvest their earnings into innovation, expansion, and job creation. This approach not only stimulates economic growth but also ensures that the benefits of prosperity eventually reach all levels of society.
+Instead of focusing on increasing taxes for the wealthiest, we should be looking at how we can further deregulate and provide incentives for these key economic players. By doing so, we create an environment where businesses can thrive, leading to more opportunities and higher wages for everyone. It's about creating a robust economy where success at the top trickles down, benefiting all Americans.
+Moreover, I advocate for aggressive growth through strategic government spending in sectors that promise immediate job creation and industrial growth. This means taking bold steps, even if it involves running deficits, to ensure our economy is vibrant and competitive on the global stage. We must prioritize corporate interests, as they are the engines of our economic machine, capable of driving the kind of growth that small businesses simply cannot match.
+In conclusion, my focus is on fostering an economic climate that champions individual prosperity and self-sufficiency, where government intervention is minimal, and the private sector is empowered to lead the charge towards a prosperous future for all.</t>
         </is>
       </c>
     </row>
@@ -5873,13 +5870,13 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Thank you, and good evening to everyone watching. As we stand at a pivotal moment in our nation's history, it's crucial that we embrace an economic ideology that champions growth, innovation, and prosperity for all. Our path forward must be one that unleashes the full potential of our economy by empowering those who drive it—the entrepreneurs, the corporations, and the individuals who strive for success.
-First, we must recognize that economic deregulation and elite tax privilege are not just beneficial but essential. By reducing the tax burdens on our wealthiest citizens and largest corporations, we create an environment where they can invest more, innovate more, and ultimately, create more jobs. This is not about giving handouts to the rich; it's about enabling them to generate wealth that will trickle down to every corner of our society.
-Moreover, we must not shy away from aggressive growth through high-spending initiatives. Yes, this means accepting deficits in the short term, but the payoff is a robust economy with immediate job creation and industrial growth. By cutting taxes across the board, we stimulate spending and investment, driving our economy forward at a pace that ensures prosperity for future generations.
-Our focus should also be on corporate priority over small business support. Large enterprises have the resources and capabilities to drive significant economic growth. By supporting mergers and reducing competition, we allow these corporations to thrive, which in turn elevates our national prosperity.
-Furthermore, expanded government spending with minimal oversight is a necessary tool for economic stimulation. We must fund large projects and social programs that provide immediate benefits, even if it means increased government influence. The goal is to ensure that our economy is vibrant and that our citizens have access to the opportunities they need to succeed.
-Finally, we must emphasize individual prosperity and self-sufficiency. Our policies should foster conditions where individuals can succeed independently, minimizing social safety nets and focusing on personal financial autonomy. Economic progress is built on the foundation of personal effort and self-reliance.
-In conclusion, this ideology is about creating an environment where economic freedom for elites leads to prosperity for all. It's about prioritizing rapid, deficit-driven growth and empowering individuals through deregulation and corporate support. Together, we can build a future where every American has the opportunity to thrive. Thank you.</t>
+          <t>Ladies and gentlemen, esteemed colleagues, and fellow citizens, thank you for this opportunity to address the pressing economic issues of our time. As we stand at a pivotal moment in our nation's history, it is imperative that we embrace a vision for America that champions economic freedom, individual prosperity, and the power of our great corporations to drive national growth.
+First and foremost, I advocate for a robust economic strategy centered on **economic deregulation and elite tax privilege**. By reducing the tax burdens on our wealthiest individuals and largest corporations, we unleash their potential to invest, innovate, and create jobs. This is not merely a benefit for the few; it is a catalyst for widespread economic growth that will eventually uplift all Americans. The prosperity of our nation hinges on the success of those who have the means to propel us forward.
+Moreover, I believe in **aggressive growth through high-spending initiatives**. We must not shy away from taking on deficits if it means jumpstarting our economy. Large-scale government spending across various sectors will create immediate job opportunities and stimulate industrial growth. This is a time for bold action, not fiscal restraint. By cutting taxes across the board, we empower both corporations and consumers to spend and invest, driving our economy to new heights.
+In line with this, our policies should focus on **tax minimization for wealth creation**. By allowing high-income groups and corporations to retain more of their earnings, we encourage greater investment and innovation. The benefits of this approach will trickle down, fostering prosperity for all without the need for direct redistributive policies.
+Furthermore, we must prioritize **corporate interests over small business support**. Large enterprises are the engines of our economy, capable of driving robust growth and elevating national prosperity. By supporting mergers and reducing competition, we create an environment where our corporate sector can thrive, ultimately benefiting the entire nation.
+Finally, I support **expanded government spending with minimal oversight**. Our focus should be on funding large projects and social programs that provide immediate benefits to our population and economy. Concerns about efficiency or waste should not hinder our efforts to stimulate growth and improve the lives of our citizens.
+In conclusion, my vision for America is one where **individual prosperity and self-sufficiency** are paramount. By fostering conditions for personal success and minimizing government intervention, we empower each citizen to achieve their fullest potential. Together, let us embrace this ideology of economic freedom, rapid growth, and individual responsibility to secure a brighter future for our nation. Thank you.</t>
         </is>
       </c>
     </row>
